--- a/20_営業/07_会計/TE030/T_TE030_CFO_010_A01_情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_010_A01_情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\10_シナリオテスト\30_不具合フォルダ\ST0036_CFO_460\20_恒久対応\20_対応中\XXCFO010A01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_xxxxx【AR】売上実績データ連携で情報系に会社コード002が連携された\20_成果物\情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="8940" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="19" r:id="rId11"/>
     <sheet name="テスト・シナリオ4_別紙" sheetId="20" r:id="rId12"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="21" r:id="rId13"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId14"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId15"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="22" r:id="rId14"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId15"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テスト・シナリオ1_別紙!$A$1:$S$54</definedName>
@@ -39,9 +40,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="381">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -2312,18 +2314,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>シナリオテスト課題対応 No.ST0036</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Issue1.2</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>パラメータが垂直に配置されている。</t>
     <rPh sb="6" eb="8">
       <t>スイチョク</t>
@@ -2352,6 +2342,143 @@
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+  </si>
+  <si>
+    <t>シナリオテスト課題対応 No.ST0036</t>
+  </si>
+  <si>
+    <t>SCSK 細沼翔太</t>
+    <rPh sb="5" eb="9">
+      <t>ホソヌマショウタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19997 対応</t>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19997 対応</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_MD030_CFO_010_A01_情報系システムへのデータ連携（勘定科目明細）抽出_エビデンス（シナリオ6）.xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社コード以外については修正前と出力内容に違いが無いこと</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュウセイマエ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シュツリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【事前準備】
+修正前のモジュールで同じ条件のファイルを出力しておくこと</t>
+    <rPh sb="1" eb="5">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュウセイマエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出力データについて、会社コード'999'以外は会社コード'001'が設定され集計されていること。</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2364,7 +2491,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2660,6 +2787,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF66FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3557,7 +3699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4265,12 +4407,123 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
@@ -4343,110 +4596,62 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4457,128 +4662,134 @@
     <xf numFmtId="49" fontId="7" fillId="11" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4608,15 +4819,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4624,60 +4826,6 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4716,6 +4864,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
   </colors>
@@ -10153,6 +10303,731 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>164726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="31016201"/>
+          <a:ext cx="7581900" cy="2667001"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>136152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33778452"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>136152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30178001"/>
+          <a:ext cx="3400425" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -10773,15 +11648,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="257" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
@@ -10790,41 +11665,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="258"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="258" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="258"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
@@ -10861,7 +11736,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45008</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -10885,7 +11760,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -11741,7 +12616,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13178,29 +14053,29 @@
       <c r="C8" s="218"/>
       <c r="D8" s="218"/>
       <c r="E8" s="218"/>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="383" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="361"/>
-      <c r="H8" s="361"/>
-      <c r="I8" s="361"/>
-      <c r="J8" s="361"/>
-      <c r="K8" s="361"/>
-      <c r="L8" s="361"/>
-      <c r="M8" s="361"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="361"/>
-      <c r="P8" s="361"/>
-      <c r="Q8" s="361"/>
-      <c r="R8" s="361"/>
-      <c r="S8" s="362"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="384"/>
+      <c r="I8" s="384"/>
+      <c r="J8" s="384"/>
+      <c r="K8" s="384"/>
+      <c r="L8" s="384"/>
+      <c r="M8" s="384"/>
+      <c r="N8" s="384"/>
+      <c r="O8" s="384"/>
+      <c r="P8" s="384"/>
+      <c r="Q8" s="384"/>
+      <c r="R8" s="384"/>
+      <c r="S8" s="385"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="363" t="s">
+      <c r="C9" s="386" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="364"/>
-      <c r="E9" s="365"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="388"/>
       <c r="F9" s="224">
         <v>1</v>
       </c>
@@ -13247,11 +14122,11 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="226"/>
       <c r="B10" s="226"/>
-      <c r="C10" s="366" t="s">
+      <c r="C10" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="368"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="391"/>
       <c r="F10" s="227" t="s">
         <v>149</v>
       </c>
@@ -13296,11 +14171,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C11" s="369" t="s">
+      <c r="C11" s="374" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="370"/>
-      <c r="E11" s="371"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="376"/>
       <c r="F11" s="230" t="s">
         <v>149</v>
       </c>
@@ -13345,11 +14220,11 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C12" s="372" t="s">
+      <c r="C12" s="392" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="373"/>
-      <c r="E12" s="374"/>
+      <c r="D12" s="393"/>
+      <c r="E12" s="394"/>
       <c r="F12" s="230" t="s">
         <v>149</v>
       </c>
@@ -13394,11 +14269,11 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C13" s="375" t="s">
+      <c r="C13" s="362" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="376"/>
-      <c r="E13" s="377"/>
+      <c r="D13" s="363"/>
+      <c r="E13" s="364"/>
       <c r="F13" s="230" t="s">
         <v>149</v>
       </c>
@@ -13443,11 +14318,11 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C14" s="381" t="s">
+      <c r="C14" s="368" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="382"/>
-      <c r="E14" s="383"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="232" t="s">
         <v>149</v>
       </c>
@@ -13492,9 +14367,9 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="384"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="386"/>
+      <c r="C15" s="371"/>
+      <c r="D15" s="372"/>
+      <c r="E15" s="373"/>
       <c r="F15" s="227" t="s">
         <v>278</v>
       </c>
@@ -13533,11 +14408,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="369" t="s">
+      <c r="C16" s="374" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="370"/>
-      <c r="E16" s="371"/>
+      <c r="D16" s="375"/>
+      <c r="E16" s="376"/>
       <c r="F16" s="230" t="s">
         <v>149</v>
       </c>
@@ -13582,11 +14457,11 @@
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C17" s="375" t="s">
+      <c r="C17" s="362" t="s">
         <v>263</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="364"/>
       <c r="F17" s="230" t="s">
         <v>149</v>
       </c>
@@ -13631,11 +14506,11 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="369" t="s">
+      <c r="C18" s="374" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="370"/>
-      <c r="E18" s="371"/>
+      <c r="D18" s="375"/>
+      <c r="E18" s="376"/>
       <c r="F18" s="230" t="s">
         <v>284</v>
       </c>
@@ -13680,11 +14555,11 @@
       </c>
     </row>
     <row r="19" spans="3:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="387" t="s">
+      <c r="C19" s="377" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="388"/>
-      <c r="E19" s="389"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="379"/>
       <c r="F19" s="230" t="s">
         <v>193</v>
       </c>
@@ -13729,11 +14604,11 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C20" s="390" t="s">
+      <c r="C20" s="380" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="391"/>
-      <c r="E20" s="392"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="382"/>
       <c r="F20" s="230"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
@@ -13756,11 +14631,11 @@
       <c r="S20" s="235"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C21" s="390" t="s">
+      <c r="C21" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="391"/>
-      <c r="E21" s="392"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="382"/>
       <c r="F21" s="237"/>
       <c r="G21" s="237"/>
       <c r="H21" s="230"/>
@@ -13783,11 +14658,11 @@
       <c r="S21" s="235"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C22" s="390" t="s">
+      <c r="C22" s="380" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="391"/>
-      <c r="E22" s="392"/>
+      <c r="D22" s="381"/>
+      <c r="E22" s="382"/>
       <c r="F22" s="239"/>
       <c r="G22" s="239"/>
       <c r="H22" s="239"/>
@@ -13810,11 +14685,11 @@
       <c r="S22" s="241"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C23" s="390" t="s">
+      <c r="C23" s="380" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="391"/>
-      <c r="E23" s="392"/>
+      <c r="D23" s="381"/>
+      <c r="E23" s="382"/>
       <c r="F23" s="239"/>
       <c r="G23" s="239"/>
       <c r="H23" s="239"/>
@@ -13837,11 +14712,11 @@
       <c r="S23" s="241"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C24" s="390" t="s">
+      <c r="C24" s="380" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="391"/>
-      <c r="E24" s="392"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="382"/>
       <c r="F24" s="242"/>
       <c r="G24" s="242"/>
       <c r="H24" s="242"/>
@@ -13864,11 +14739,11 @@
       <c r="S24" s="244"/>
     </row>
     <row r="25" spans="3:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="378" t="s">
+      <c r="C25" s="365" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="379"/>
-      <c r="E25" s="380"/>
+      <c r="D25" s="366"/>
+      <c r="E25" s="367"/>
       <c r="F25" s="245" t="s">
         <v>341</v>
       </c>
@@ -13908,6 +14783,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F8:S8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
@@ -13921,11 +14801,6 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F8:S8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -13949,7 +14824,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14612,13 +15487,13 @@
         <v>352</v>
       </c>
       <c r="F11" s="118" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G11" s="250" t="s">
         <v>290</v>
       </c>
       <c r="H11" s="250" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I11" s="251">
         <v>45007</v>
@@ -14911,7 +15786,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="121" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -14975,6 +15850,896 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" s="75">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="I13" s="75">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="I14" s="75">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="256" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G16">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
@@ -15390,38 +17155,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="395" t="s">
+      <c r="B5" s="397" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="397" t="s">
+      <c r="D5" s="399" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="399" t="s">
+      <c r="E5" s="401" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="397" t="s">
+      <c r="F5" s="399" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="399" t="s">
+      <c r="G5" s="401" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="393" t="s">
+      <c r="H5" s="395" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="396"/>
+      <c r="B6" s="398"/>
       <c r="C6" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="398"/>
-      <c r="E6" s="400"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="400"/>
-      <c r="H6" s="394"/>
+      <c r="D6" s="400"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="400"/>
+      <c r="G6" s="402"/>
+      <c r="H6" s="396"/>
     </row>
     <row r="7" spans="1:8" ht="53.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="65" t="s">
@@ -15634,7 +17399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -16247,11 +18012,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16619,35 +18382,63 @@
       <c r="H10" s="208"/>
       <c r="I10" s="209"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="91">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="204">
         <v>45008</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="205" t="s">
         <v>356</v>
       </c>
-      <c r="D11" s="93" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="96"/>
+      <c r="D11" s="206" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="207" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="209"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="B12" s="204">
+        <v>45432</v>
+      </c>
+      <c r="C12" s="205" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="206" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="207" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="209"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -16986,9 +18777,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17108,10 +18897,10 @@
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="120" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F11" s="81"/>
     </row>
@@ -17119,8 +18908,12 @@
       <c r="A12" s="81"/>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="84"/>
+      <c r="D12" s="120" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="255" t="s">
+        <v>368</v>
+      </c>
       <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -17187,6 +18980,7 @@
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!Print_Area" display="シナリオ5"/>
+    <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -19187,28 +20981,28 @@
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
       <c r="E8" s="129"/>
-      <c r="F8" s="313" t="s">
+      <c r="F8" s="259" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="314"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="314"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="315"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="261"/>
     </row>
     <row r="9" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="297" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="299"/>
       <c r="F9" s="159">
         <v>1</v>
       </c>
@@ -19252,11 +21046,11 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="300" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="264"/>
-      <c r="E10" s="265"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="302"/>
       <c r="F10" s="51" t="s">
         <v>149</v>
       </c>
@@ -19298,11 +21092,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="303" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="267"/>
-      <c r="E11" s="268"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="305"/>
       <c r="F11" s="46" t="s">
         <v>149</v>
       </c>
@@ -19344,11 +21138,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C12" s="278" t="s">
+      <c r="C12" s="315" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="279"/>
-      <c r="E12" s="280"/>
+      <c r="D12" s="316"/>
+      <c r="E12" s="317"/>
       <c r="F12" s="46" t="s">
         <v>149</v>
       </c>
@@ -19390,11 +21184,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C13" s="272" t="s">
+      <c r="C13" s="309" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="273"/>
-      <c r="E13" s="274"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="311"/>
       <c r="F13" s="46" t="s">
         <v>149</v>
       </c>
@@ -19436,11 +21230,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C14" s="269" t="s">
+      <c r="C14" s="306" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="270"/>
-      <c r="E14" s="271"/>
+      <c r="D14" s="307"/>
+      <c r="E14" s="308"/>
       <c r="F14" s="55" t="s">
         <v>149</v>
       </c>
@@ -19482,9 +21276,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="275"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="277"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="314"/>
       <c r="F15" s="51" t="s">
         <v>278</v>
       </c>
@@ -19526,11 +21320,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="266" t="s">
+      <c r="C16" s="303" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="267"/>
-      <c r="E16" s="268"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="305"/>
       <c r="F16" s="46" t="s">
         <v>149</v>
       </c>
@@ -19572,11 +21366,11 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C17" s="272" t="s">
+      <c r="C17" s="309" t="s">
         <v>263</v>
       </c>
-      <c r="D17" s="273"/>
-      <c r="E17" s="274"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="311"/>
       <c r="F17" s="46" t="s">
         <v>149</v>
       </c>
@@ -19618,11 +21412,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="266" t="s">
+      <c r="C18" s="303" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="267"/>
-      <c r="E18" s="268"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="305"/>
       <c r="F18" s="46" t="s">
         <v>284</v>
       </c>
@@ -19664,11 +21458,11 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="266" t="s">
+      <c r="C19" s="303" t="s">
         <v>264</v>
       </c>
-      <c r="D19" s="267"/>
-      <c r="E19" s="268"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="305"/>
       <c r="F19" s="160" t="s">
         <v>193</v>
       </c>
@@ -19710,11 +21504,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="C20" s="257" t="s">
+      <c r="C20" s="294" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="258"/>
-      <c r="E20" s="259"/>
+      <c r="D20" s="295"/>
+      <c r="E20" s="296"/>
       <c r="F20" s="46" t="s">
         <v>152</v>
       </c>
@@ -19756,11 +21550,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="C21" s="257" t="s">
+      <c r="C21" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="258"/>
-      <c r="E21" s="259"/>
+      <c r="D21" s="295"/>
+      <c r="E21" s="296"/>
       <c r="F21" s="39" t="s">
         <v>306</v>
       </c>
@@ -19802,11 +21596,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="257" t="s">
+      <c r="C22" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="259"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="296"/>
       <c r="F22" s="57" t="s">
         <v>290</v>
       </c>
@@ -19848,11 +21642,11 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="294" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
+      <c r="D23" s="295"/>
+      <c r="E23" s="296"/>
       <c r="F23" s="57" t="s">
         <v>289</v>
       </c>
@@ -19894,11 +21688,11 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="281" t="s">
+      <c r="C24" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="282"/>
-      <c r="E24" s="283"/>
+      <c r="D24" s="292"/>
+      <c r="E24" s="293"/>
       <c r="F24" s="133">
         <v>44897</v>
       </c>
@@ -19969,38 +21763,38 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B31" s="284" t="s">
+      <c r="B31" s="276" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="286" t="s">
+      <c r="C31" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="289" t="s">
+      <c r="D31" s="279"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="290"/>
-      <c r="H31" s="293" t="s">
+      <c r="G31" s="282"/>
+      <c r="H31" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="293" t="s">
+      <c r="I31" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="293" t="s">
+      <c r="J31" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="K31" s="293" t="s">
+      <c r="K31" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="295" t="s">
+      <c r="L31" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="M31" s="295"/>
-      <c r="N31" s="296"/>
+      <c r="M31" s="264"/>
+      <c r="N31" s="265"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="285"/>
+      <c r="B32" s="277"/>
       <c r="C32" s="137" t="s">
         <v>166</v>
       </c>
@@ -20008,15 +21802,15 @@
         <v>167</v>
       </c>
       <c r="E32" s="138"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="297"/>
-      <c r="M32" s="297"/>
-      <c r="N32" s="298"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="263"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="263"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="266"/>
+      <c r="M32" s="266"/>
+      <c r="N32" s="267"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="139" t="s">
@@ -20025,14 +21819,14 @@
       <c r="C33" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="299" t="s">
+      <c r="D33" s="287" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="300"/>
-      <c r="F33" s="301" t="s">
+      <c r="E33" s="288"/>
+      <c r="F33" s="289" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="302"/>
+      <c r="G33" s="290"/>
       <c r="H33" s="141" t="s">
         <v>303</v>
       </c>
@@ -20045,9 +21839,9 @@
       <c r="K33" s="143">
         <v>44896</v>
       </c>
-      <c r="L33" s="303"/>
-      <c r="M33" s="303"/>
-      <c r="N33" s="304"/>
+      <c r="L33" s="274"/>
+      <c r="M33" s="274"/>
+      <c r="N33" s="275"/>
     </row>
     <row r="34" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="144" t="s">
@@ -20056,14 +21850,14 @@
       <c r="C34" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="305" t="s">
+      <c r="D34" s="285" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="305"/>
-      <c r="F34" s="306" t="s">
+      <c r="E34" s="285"/>
+      <c r="F34" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="G34" s="306"/>
+      <c r="G34" s="286"/>
       <c r="H34" s="146" t="s">
         <v>303</v>
       </c>
@@ -20076,9 +21870,9 @@
       <c r="K34" s="148">
         <v>44896</v>
       </c>
-      <c r="L34" s="307"/>
-      <c r="M34" s="307"/>
-      <c r="N34" s="308"/>
+      <c r="L34" s="270"/>
+      <c r="M34" s="270"/>
+      <c r="N34" s="271"/>
     </row>
     <row r="36" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="136" t="s">
@@ -20086,38 +21880,38 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="284" t="s">
+      <c r="B37" s="276" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="286" t="s">
+      <c r="C37" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="287"/>
-      <c r="E37" s="288"/>
-      <c r="F37" s="289" t="s">
+      <c r="D37" s="279"/>
+      <c r="E37" s="280"/>
+      <c r="F37" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="290"/>
-      <c r="H37" s="293" t="s">
+      <c r="G37" s="282"/>
+      <c r="H37" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="293" t="s">
+      <c r="I37" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="293" t="s">
+      <c r="J37" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="K37" s="293" t="s">
+      <c r="K37" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L37" s="295" t="s">
+      <c r="L37" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="M37" s="295"/>
-      <c r="N37" s="296"/>
+      <c r="M37" s="264"/>
+      <c r="N37" s="265"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="285"/>
+      <c r="B38" s="277"/>
       <c r="C38" s="137" t="s">
         <v>166</v>
       </c>
@@ -20125,15 +21919,15 @@
         <v>172</v>
       </c>
       <c r="E38" s="138"/>
-      <c r="F38" s="291"/>
-      <c r="G38" s="292"/>
-      <c r="H38" s="294"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="294"/>
-      <c r="L38" s="297"/>
-      <c r="M38" s="297"/>
-      <c r="N38" s="298"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="284"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="263"/>
+      <c r="L38" s="266"/>
+      <c r="M38" s="266"/>
+      <c r="N38" s="267"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="149" t="s">
@@ -20146,10 +21940,10 @@
         <v>174</v>
       </c>
       <c r="E39" s="151"/>
-      <c r="F39" s="309" t="s">
+      <c r="F39" s="272" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="310"/>
+      <c r="G39" s="273"/>
       <c r="H39" s="141" t="s">
         <v>303</v>
       </c>
@@ -20162,9 +21956,9 @@
       <c r="K39" s="143">
         <v>44896</v>
       </c>
-      <c r="L39" s="303"/>
-      <c r="M39" s="303"/>
-      <c r="N39" s="304"/>
+      <c r="L39" s="274"/>
+      <c r="M39" s="274"/>
+      <c r="N39" s="275"/>
     </row>
     <row r="40" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="152" t="s">
@@ -20177,10 +21971,10 @@
         <v>206</v>
       </c>
       <c r="E40" s="154"/>
-      <c r="F40" s="311" t="s">
+      <c r="F40" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="G40" s="312"/>
+      <c r="G40" s="269"/>
       <c r="H40" s="146" t="s">
         <v>303</v>
       </c>
@@ -20193,9 +21987,9 @@
       <c r="K40" s="148">
         <v>44896</v>
       </c>
-      <c r="L40" s="307"/>
-      <c r="M40" s="307"/>
-      <c r="N40" s="308"/>
+      <c r="L40" s="270"/>
+      <c r="M40" s="270"/>
+      <c r="N40" s="271"/>
     </row>
     <row r="42" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="136" t="s">
@@ -20203,38 +21997,38 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B43" s="284" t="s">
+      <c r="B43" s="276" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="286" t="s">
+      <c r="C43" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="287"/>
-      <c r="E43" s="288"/>
-      <c r="F43" s="289" t="s">
+      <c r="D43" s="279"/>
+      <c r="E43" s="280"/>
+      <c r="F43" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="290"/>
-      <c r="H43" s="293" t="s">
+      <c r="G43" s="282"/>
+      <c r="H43" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="293" t="s">
+      <c r="I43" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="293" t="s">
+      <c r="J43" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="K43" s="293" t="s">
+      <c r="K43" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L43" s="295" t="s">
+      <c r="L43" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="M43" s="295"/>
-      <c r="N43" s="296"/>
+      <c r="M43" s="264"/>
+      <c r="N43" s="265"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="285"/>
+      <c r="B44" s="277"/>
       <c r="C44" s="137" t="s">
         <v>166</v>
       </c>
@@ -20244,15 +22038,15 @@
       <c r="E44" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="291"/>
-      <c r="G44" s="292"/>
-      <c r="H44" s="294"/>
-      <c r="I44" s="294"/>
-      <c r="J44" s="294"/>
-      <c r="K44" s="294"/>
-      <c r="L44" s="297"/>
-      <c r="M44" s="297"/>
-      <c r="N44" s="298"/>
+      <c r="F44" s="283"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="263"/>
+      <c r="I44" s="263"/>
+      <c r="J44" s="263"/>
+      <c r="K44" s="263"/>
+      <c r="L44" s="266"/>
+      <c r="M44" s="266"/>
+      <c r="N44" s="267"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="149" t="s">
@@ -20267,10 +22061,10 @@
       <c r="E45" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="309" t="s">
+      <c r="F45" s="272" t="s">
         <v>210</v>
       </c>
-      <c r="G45" s="310"/>
+      <c r="G45" s="273"/>
       <c r="H45" s="141" t="s">
         <v>303</v>
       </c>
@@ -20283,9 +22077,9 @@
       <c r="K45" s="143">
         <v>44896</v>
       </c>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="304"/>
+      <c r="L45" s="274"/>
+      <c r="M45" s="274"/>
+      <c r="N45" s="275"/>
     </row>
     <row r="46" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="152" t="s">
@@ -20300,10 +22094,10 @@
       <c r="E46" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="311" t="s">
+      <c r="F46" s="268" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="312"/>
+      <c r="G46" s="269"/>
       <c r="H46" s="146" t="s">
         <v>303</v>
       </c>
@@ -20316,9 +22110,9 @@
       <c r="K46" s="148">
         <v>44896</v>
       </c>
-      <c r="L46" s="307"/>
-      <c r="M46" s="307"/>
-      <c r="N46" s="308"/>
+      <c r="L46" s="270"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="271"/>
     </row>
     <row r="48" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="136" t="s">
@@ -20326,38 +22120,38 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="276" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="286" t="s">
+      <c r="C49" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="287"/>
-      <c r="E49" s="288"/>
-      <c r="F49" s="289" t="s">
+      <c r="D49" s="279"/>
+      <c r="E49" s="280"/>
+      <c r="F49" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="290"/>
-      <c r="H49" s="293" t="s">
+      <c r="G49" s="282"/>
+      <c r="H49" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="293" t="s">
+      <c r="I49" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="J49" s="293" t="s">
+      <c r="J49" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="K49" s="293" t="s">
+      <c r="K49" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L49" s="295" t="s">
+      <c r="L49" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="M49" s="295"/>
-      <c r="N49" s="296"/>
+      <c r="M49" s="264"/>
+      <c r="N49" s="265"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="285"/>
+      <c r="B50" s="277"/>
       <c r="C50" s="137" t="s">
         <v>166</v>
       </c>
@@ -20365,15 +22159,15 @@
         <v>186</v>
       </c>
       <c r="E50" s="138"/>
-      <c r="F50" s="291"/>
-      <c r="G50" s="292"/>
-      <c r="H50" s="294"/>
-      <c r="I50" s="294"/>
-      <c r="J50" s="294"/>
-      <c r="K50" s="294"/>
-      <c r="L50" s="297"/>
-      <c r="M50" s="297"/>
-      <c r="N50" s="298"/>
+      <c r="F50" s="283"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="263"/>
+      <c r="I50" s="263"/>
+      <c r="J50" s="263"/>
+      <c r="K50" s="263"/>
+      <c r="L50" s="266"/>
+      <c r="M50" s="266"/>
+      <c r="N50" s="267"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="149" t="s">
@@ -20384,10 +22178,10 @@
       </c>
       <c r="D51" s="155"/>
       <c r="E51" s="156"/>
-      <c r="F51" s="309" t="s">
+      <c r="F51" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="310"/>
+      <c r="G51" s="273"/>
       <c r="H51" s="141" t="s">
         <v>303</v>
       </c>
@@ -20400,9 +22194,9 @@
       <c r="K51" s="143">
         <v>44896</v>
       </c>
-      <c r="L51" s="303"/>
-      <c r="M51" s="303"/>
-      <c r="N51" s="304"/>
+      <c r="L51" s="274"/>
+      <c r="M51" s="274"/>
+      <c r="N51" s="275"/>
     </row>
     <row r="52" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="152" t="s">
@@ -20413,10 +22207,10 @@
       </c>
       <c r="D52" s="157"/>
       <c r="E52" s="158"/>
-      <c r="F52" s="311" t="s">
+      <c r="F52" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="312"/>
+      <c r="G52" s="269"/>
       <c r="H52" s="146" t="s">
         <v>303</v>
       </c>
@@ -20429,12 +22223,63 @@
       <c r="K52" s="148">
         <v>44896</v>
       </c>
-      <c r="L52" s="307"/>
-      <c r="M52" s="307"/>
-      <c r="N52" s="308"/>
+      <c r="L52" s="270"/>
+      <c r="M52" s="270"/>
+      <c r="N52" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:N32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="J49:J50"/>
     <mergeCell ref="F8:R8"/>
     <mergeCell ref="K49:K50"/>
     <mergeCell ref="L49:N50"/>
@@ -20451,57 +22296,6 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="L45:N45"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:N32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -21712,20 +23506,20 @@
         <v>217</v>
       </c>
       <c r="D11" s="177"/>
-      <c r="E11" s="316" t="s">
+      <c r="E11" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="317"/>
-      <c r="G11" s="317"/>
-      <c r="H11" s="317"/>
-      <c r="I11" s="317"/>
-      <c r="J11" s="317"/>
-      <c r="K11" s="317"/>
-      <c r="L11" s="318"/>
-      <c r="M11" s="319" t="s">
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="N11" s="320"/>
+      <c r="N11" s="361"/>
       <c r="O11" s="178" t="s">
         <v>160</v>
       </c>
@@ -21780,46 +23574,46 @@
       <c r="J12" s="184"/>
       <c r="K12" s="184"/>
       <c r="L12" s="185"/>
-      <c r="M12" s="321" t="s">
+      <c r="M12" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N12" s="322"/>
-      <c r="O12" s="323" t="s">
+      <c r="N12" s="329"/>
+      <c r="O12" s="333" t="s">
         <v>314</v>
       </c>
-      <c r="P12" s="324"/>
-      <c r="Q12" s="324"/>
-      <c r="R12" s="324"/>
-      <c r="S12" s="325"/>
-      <c r="T12" s="323" t="s">
+      <c r="P12" s="323"/>
+      <c r="Q12" s="323"/>
+      <c r="R12" s="323"/>
+      <c r="S12" s="324"/>
+      <c r="T12" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U12" s="324"/>
-      <c r="V12" s="324"/>
-      <c r="W12" s="324"/>
-      <c r="X12" s="325"/>
-      <c r="Y12" s="326" t="s">
+      <c r="U12" s="323"/>
+      <c r="V12" s="323"/>
+      <c r="W12" s="323"/>
+      <c r="X12" s="324"/>
+      <c r="Y12" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z12" s="327"/>
-      <c r="AA12" s="328" t="s">
+      <c r="Z12" s="335"/>
+      <c r="AA12" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB12" s="329"/>
-      <c r="AC12" s="330"/>
-      <c r="AD12" s="331">
+      <c r="AB12" s="319"/>
+      <c r="AC12" s="320"/>
+      <c r="AD12" s="321">
         <v>44903</v>
       </c>
-      <c r="AE12" s="329"/>
-      <c r="AF12" s="329"/>
-      <c r="AG12" s="330"/>
-      <c r="AH12" s="332"/>
-      <c r="AI12" s="324"/>
-      <c r="AJ12" s="324"/>
-      <c r="AK12" s="324"/>
-      <c r="AL12" s="324"/>
-      <c r="AM12" s="324"/>
-      <c r="AN12" s="325"/>
+      <c r="AE12" s="319"/>
+      <c r="AF12" s="319"/>
+      <c r="AG12" s="320"/>
+      <c r="AH12" s="322"/>
+      <c r="AI12" s="323"/>
+      <c r="AJ12" s="323"/>
+      <c r="AK12" s="323"/>
+      <c r="AL12" s="323"/>
+      <c r="AM12" s="323"/>
+      <c r="AN12" s="324"/>
     </row>
     <row r="13" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="181">
@@ -21836,46 +23630,46 @@
       <c r="J13" s="184"/>
       <c r="K13" s="184"/>
       <c r="L13" s="185"/>
-      <c r="M13" s="321" t="s">
+      <c r="M13" s="327" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="322"/>
-      <c r="O13" s="323" t="s">
+      <c r="N13" s="329"/>
+      <c r="O13" s="333" t="s">
         <v>312</v>
       </c>
-      <c r="P13" s="324"/>
-      <c r="Q13" s="324"/>
-      <c r="R13" s="324"/>
-      <c r="S13" s="325"/>
-      <c r="T13" s="323" t="s">
+      <c r="P13" s="323"/>
+      <c r="Q13" s="323"/>
+      <c r="R13" s="323"/>
+      <c r="S13" s="324"/>
+      <c r="T13" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U13" s="324"/>
-      <c r="V13" s="324"/>
-      <c r="W13" s="324"/>
-      <c r="X13" s="325"/>
-      <c r="Y13" s="326" t="s">
+      <c r="U13" s="323"/>
+      <c r="V13" s="323"/>
+      <c r="W13" s="323"/>
+      <c r="X13" s="324"/>
+      <c r="Y13" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z13" s="327"/>
-      <c r="AA13" s="328" t="s">
+      <c r="Z13" s="335"/>
+      <c r="AA13" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB13" s="329"/>
-      <c r="AC13" s="330"/>
-      <c r="AD13" s="331">
+      <c r="AB13" s="319"/>
+      <c r="AC13" s="320"/>
+      <c r="AD13" s="321">
         <v>44903</v>
       </c>
-      <c r="AE13" s="329"/>
-      <c r="AF13" s="329"/>
-      <c r="AG13" s="330"/>
-      <c r="AH13" s="332"/>
-      <c r="AI13" s="324"/>
-      <c r="AJ13" s="324"/>
-      <c r="AK13" s="324"/>
-      <c r="AL13" s="324"/>
-      <c r="AM13" s="324"/>
-      <c r="AN13" s="325"/>
+      <c r="AE13" s="319"/>
+      <c r="AF13" s="319"/>
+      <c r="AG13" s="320"/>
+      <c r="AH13" s="322"/>
+      <c r="AI13" s="323"/>
+      <c r="AJ13" s="323"/>
+      <c r="AK13" s="323"/>
+      <c r="AL13" s="323"/>
+      <c r="AM13" s="323"/>
+      <c r="AN13" s="324"/>
     </row>
     <row r="14" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="181">
@@ -21892,46 +23686,46 @@
       <c r="J14" s="184"/>
       <c r="K14" s="184"/>
       <c r="L14" s="185"/>
-      <c r="M14" s="321" t="s">
+      <c r="M14" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N14" s="322"/>
-      <c r="O14" s="323" t="s">
+      <c r="N14" s="329"/>
+      <c r="O14" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P14" s="324"/>
-      <c r="Q14" s="324"/>
-      <c r="R14" s="324"/>
-      <c r="S14" s="325"/>
-      <c r="T14" s="323" t="s">
+      <c r="P14" s="323"/>
+      <c r="Q14" s="323"/>
+      <c r="R14" s="323"/>
+      <c r="S14" s="324"/>
+      <c r="T14" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U14" s="324"/>
-      <c r="V14" s="324"/>
-      <c r="W14" s="324"/>
-      <c r="X14" s="325"/>
-      <c r="Y14" s="326" t="s">
+      <c r="U14" s="323"/>
+      <c r="V14" s="323"/>
+      <c r="W14" s="323"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z14" s="327"/>
-      <c r="AA14" s="328" t="s">
+      <c r="Z14" s="335"/>
+      <c r="AA14" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB14" s="329"/>
-      <c r="AC14" s="330"/>
-      <c r="AD14" s="331">
+      <c r="AB14" s="319"/>
+      <c r="AC14" s="320"/>
+      <c r="AD14" s="321">
         <v>44903</v>
       </c>
-      <c r="AE14" s="329"/>
-      <c r="AF14" s="329"/>
-      <c r="AG14" s="330"/>
-      <c r="AH14" s="332"/>
-      <c r="AI14" s="324"/>
-      <c r="AJ14" s="324"/>
-      <c r="AK14" s="324"/>
-      <c r="AL14" s="324"/>
-      <c r="AM14" s="324"/>
-      <c r="AN14" s="325"/>
+      <c r="AE14" s="319"/>
+      <c r="AF14" s="319"/>
+      <c r="AG14" s="320"/>
+      <c r="AH14" s="322"/>
+      <c r="AI14" s="323"/>
+      <c r="AJ14" s="323"/>
+      <c r="AK14" s="323"/>
+      <c r="AL14" s="323"/>
+      <c r="AM14" s="323"/>
+      <c r="AN14" s="324"/>
     </row>
     <row r="15" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="181">
@@ -21948,46 +23742,46 @@
       <c r="J15" s="184"/>
       <c r="K15" s="184"/>
       <c r="L15" s="185"/>
-      <c r="M15" s="321" t="s">
+      <c r="M15" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N15" s="322"/>
-      <c r="O15" s="323" t="s">
+      <c r="N15" s="329"/>
+      <c r="O15" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P15" s="324"/>
-      <c r="Q15" s="324"/>
-      <c r="R15" s="324"/>
-      <c r="S15" s="325"/>
-      <c r="T15" s="323" t="s">
+      <c r="P15" s="323"/>
+      <c r="Q15" s="323"/>
+      <c r="R15" s="323"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
-      <c r="X15" s="325"/>
-      <c r="Y15" s="326" t="s">
+      <c r="U15" s="323"/>
+      <c r="V15" s="323"/>
+      <c r="W15" s="323"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z15" s="327"/>
-      <c r="AA15" s="328" t="s">
+      <c r="Z15" s="335"/>
+      <c r="AA15" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB15" s="329"/>
-      <c r="AC15" s="330"/>
-      <c r="AD15" s="331">
+      <c r="AB15" s="319"/>
+      <c r="AC15" s="320"/>
+      <c r="AD15" s="321">
         <v>44903</v>
       </c>
-      <c r="AE15" s="329"/>
-      <c r="AF15" s="329"/>
-      <c r="AG15" s="330"/>
-      <c r="AH15" s="332"/>
-      <c r="AI15" s="324"/>
-      <c r="AJ15" s="324"/>
-      <c r="AK15" s="324"/>
-      <c r="AL15" s="324"/>
-      <c r="AM15" s="324"/>
-      <c r="AN15" s="325"/>
+      <c r="AE15" s="319"/>
+      <c r="AF15" s="319"/>
+      <c r="AG15" s="320"/>
+      <c r="AH15" s="322"/>
+      <c r="AI15" s="323"/>
+      <c r="AJ15" s="323"/>
+      <c r="AK15" s="323"/>
+      <c r="AL15" s="323"/>
+      <c r="AM15" s="323"/>
+      <c r="AN15" s="324"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="181">
@@ -22004,46 +23798,46 @@
       <c r="J16" s="184"/>
       <c r="K16" s="184"/>
       <c r="L16" s="185"/>
-      <c r="M16" s="321" t="s">
+      <c r="M16" s="327" t="s">
         <v>247</v>
       </c>
-      <c r="N16" s="322"/>
-      <c r="O16" s="323" t="s">
+      <c r="N16" s="329"/>
+      <c r="O16" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="324"/>
-      <c r="Q16" s="324"/>
-      <c r="R16" s="324"/>
-      <c r="S16" s="325"/>
-      <c r="T16" s="323" t="s">
+      <c r="P16" s="323"/>
+      <c r="Q16" s="323"/>
+      <c r="R16" s="323"/>
+      <c r="S16" s="324"/>
+      <c r="T16" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U16" s="324"/>
-      <c r="V16" s="324"/>
-      <c r="W16" s="324"/>
-      <c r="X16" s="325"/>
-      <c r="Y16" s="326" t="s">
+      <c r="U16" s="323"/>
+      <c r="V16" s="323"/>
+      <c r="W16" s="323"/>
+      <c r="X16" s="324"/>
+      <c r="Y16" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z16" s="327"/>
-      <c r="AA16" s="328" t="s">
+      <c r="Z16" s="335"/>
+      <c r="AA16" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB16" s="329"/>
-      <c r="AC16" s="330"/>
-      <c r="AD16" s="331">
+      <c r="AB16" s="319"/>
+      <c r="AC16" s="320"/>
+      <c r="AD16" s="321">
         <v>44903</v>
       </c>
-      <c r="AE16" s="329"/>
-      <c r="AF16" s="329"/>
-      <c r="AG16" s="330"/>
-      <c r="AH16" s="332"/>
-      <c r="AI16" s="324"/>
-      <c r="AJ16" s="324"/>
-      <c r="AK16" s="324"/>
-      <c r="AL16" s="324"/>
-      <c r="AM16" s="324"/>
-      <c r="AN16" s="325"/>
+      <c r="AE16" s="319"/>
+      <c r="AF16" s="319"/>
+      <c r="AG16" s="320"/>
+      <c r="AH16" s="322"/>
+      <c r="AI16" s="323"/>
+      <c r="AJ16" s="323"/>
+      <c r="AK16" s="323"/>
+      <c r="AL16" s="323"/>
+      <c r="AM16" s="323"/>
+      <c r="AN16" s="324"/>
     </row>
     <row r="17" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="181">
@@ -22060,46 +23854,46 @@
       <c r="J17" s="184"/>
       <c r="K17" s="184"/>
       <c r="L17" s="185"/>
-      <c r="M17" s="321" t="s">
+      <c r="M17" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N17" s="322"/>
-      <c r="O17" s="323" t="s">
+      <c r="N17" s="329"/>
+      <c r="O17" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P17" s="324"/>
-      <c r="Q17" s="324"/>
-      <c r="R17" s="324"/>
-      <c r="S17" s="325"/>
-      <c r="T17" s="323" t="s">
+      <c r="P17" s="323"/>
+      <c r="Q17" s="323"/>
+      <c r="R17" s="323"/>
+      <c r="S17" s="324"/>
+      <c r="T17" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U17" s="324"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="325"/>
-      <c r="Y17" s="326" t="s">
+      <c r="U17" s="323"/>
+      <c r="V17" s="323"/>
+      <c r="W17" s="323"/>
+      <c r="X17" s="324"/>
+      <c r="Y17" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z17" s="327"/>
-      <c r="AA17" s="328" t="s">
+      <c r="Z17" s="335"/>
+      <c r="AA17" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB17" s="329"/>
-      <c r="AC17" s="330"/>
-      <c r="AD17" s="331">
+      <c r="AB17" s="319"/>
+      <c r="AC17" s="320"/>
+      <c r="AD17" s="321">
         <v>44903</v>
       </c>
-      <c r="AE17" s="329"/>
-      <c r="AF17" s="329"/>
-      <c r="AG17" s="330"/>
-      <c r="AH17" s="332"/>
-      <c r="AI17" s="324"/>
-      <c r="AJ17" s="324"/>
-      <c r="AK17" s="324"/>
-      <c r="AL17" s="324"/>
-      <c r="AM17" s="324"/>
-      <c r="AN17" s="325"/>
+      <c r="AE17" s="319"/>
+      <c r="AF17" s="319"/>
+      <c r="AG17" s="320"/>
+      <c r="AH17" s="322"/>
+      <c r="AI17" s="323"/>
+      <c r="AJ17" s="323"/>
+      <c r="AK17" s="323"/>
+      <c r="AL17" s="323"/>
+      <c r="AM17" s="323"/>
+      <c r="AN17" s="324"/>
     </row>
     <row r="18" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="181">
@@ -22116,46 +23910,46 @@
       <c r="J18" s="184"/>
       <c r="K18" s="184"/>
       <c r="L18" s="185"/>
-      <c r="M18" s="321" t="s">
+      <c r="M18" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N18" s="322"/>
-      <c r="O18" s="323" t="s">
+      <c r="N18" s="329"/>
+      <c r="O18" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P18" s="324"/>
-      <c r="Q18" s="324"/>
-      <c r="R18" s="324"/>
-      <c r="S18" s="325"/>
-      <c r="T18" s="323" t="s">
+      <c r="P18" s="323"/>
+      <c r="Q18" s="323"/>
+      <c r="R18" s="323"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U18" s="324"/>
-      <c r="V18" s="324"/>
-      <c r="W18" s="324"/>
-      <c r="X18" s="325"/>
-      <c r="Y18" s="326" t="s">
+      <c r="U18" s="323"/>
+      <c r="V18" s="323"/>
+      <c r="W18" s="323"/>
+      <c r="X18" s="324"/>
+      <c r="Y18" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z18" s="327"/>
-      <c r="AA18" s="328" t="s">
+      <c r="Z18" s="335"/>
+      <c r="AA18" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB18" s="329"/>
-      <c r="AC18" s="330"/>
-      <c r="AD18" s="331">
+      <c r="AB18" s="319"/>
+      <c r="AC18" s="320"/>
+      <c r="AD18" s="321">
         <v>44903</v>
       </c>
-      <c r="AE18" s="329"/>
-      <c r="AF18" s="329"/>
-      <c r="AG18" s="330"/>
-      <c r="AH18" s="332"/>
-      <c r="AI18" s="324"/>
-      <c r="AJ18" s="324"/>
-      <c r="AK18" s="324"/>
-      <c r="AL18" s="324"/>
-      <c r="AM18" s="324"/>
-      <c r="AN18" s="325"/>
+      <c r="AE18" s="319"/>
+      <c r="AF18" s="319"/>
+      <c r="AG18" s="320"/>
+      <c r="AH18" s="322"/>
+      <c r="AI18" s="323"/>
+      <c r="AJ18" s="323"/>
+      <c r="AK18" s="323"/>
+      <c r="AL18" s="323"/>
+      <c r="AM18" s="323"/>
+      <c r="AN18" s="324"/>
     </row>
     <row r="19" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="181">
@@ -22172,46 +23966,46 @@
       <c r="J19" s="184"/>
       <c r="K19" s="184"/>
       <c r="L19" s="185"/>
-      <c r="M19" s="321" t="s">
+      <c r="M19" s="327" t="s">
         <v>248</v>
       </c>
-      <c r="N19" s="322"/>
-      <c r="O19" s="323" t="s">
+      <c r="N19" s="329"/>
+      <c r="O19" s="333" t="s">
         <v>312</v>
       </c>
-      <c r="P19" s="324"/>
-      <c r="Q19" s="324"/>
-      <c r="R19" s="324"/>
-      <c r="S19" s="325"/>
-      <c r="T19" s="323" t="s">
+      <c r="P19" s="323"/>
+      <c r="Q19" s="323"/>
+      <c r="R19" s="323"/>
+      <c r="S19" s="324"/>
+      <c r="T19" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U19" s="324"/>
-      <c r="V19" s="324"/>
-      <c r="W19" s="324"/>
-      <c r="X19" s="325"/>
-      <c r="Y19" s="326" t="s">
+      <c r="U19" s="323"/>
+      <c r="V19" s="323"/>
+      <c r="W19" s="323"/>
+      <c r="X19" s="324"/>
+      <c r="Y19" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z19" s="327"/>
-      <c r="AA19" s="328" t="s">
+      <c r="Z19" s="335"/>
+      <c r="AA19" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB19" s="329"/>
-      <c r="AC19" s="330"/>
-      <c r="AD19" s="331">
+      <c r="AB19" s="319"/>
+      <c r="AC19" s="320"/>
+      <c r="AD19" s="321">
         <v>44903</v>
       </c>
-      <c r="AE19" s="329"/>
-      <c r="AF19" s="329"/>
-      <c r="AG19" s="330"/>
-      <c r="AH19" s="332"/>
-      <c r="AI19" s="324"/>
-      <c r="AJ19" s="324"/>
-      <c r="AK19" s="324"/>
-      <c r="AL19" s="324"/>
-      <c r="AM19" s="324"/>
-      <c r="AN19" s="325"/>
+      <c r="AE19" s="319"/>
+      <c r="AF19" s="319"/>
+      <c r="AG19" s="320"/>
+      <c r="AH19" s="322"/>
+      <c r="AI19" s="323"/>
+      <c r="AJ19" s="323"/>
+      <c r="AK19" s="323"/>
+      <c r="AL19" s="323"/>
+      <c r="AM19" s="323"/>
+      <c r="AN19" s="324"/>
     </row>
     <row r="20" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="181">
@@ -22228,46 +24022,46 @@
       <c r="J20" s="184"/>
       <c r="K20" s="184"/>
       <c r="L20" s="185"/>
-      <c r="M20" s="321" t="s">
+      <c r="M20" s="327" t="s">
         <v>246</v>
       </c>
-      <c r="N20" s="322"/>
-      <c r="O20" s="323" t="s">
+      <c r="N20" s="329"/>
+      <c r="O20" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="P20" s="324"/>
-      <c r="Q20" s="324"/>
-      <c r="R20" s="324"/>
-      <c r="S20" s="325"/>
-      <c r="T20" s="323" t="s">
+      <c r="P20" s="323"/>
+      <c r="Q20" s="323"/>
+      <c r="R20" s="323"/>
+      <c r="S20" s="324"/>
+      <c r="T20" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U20" s="324"/>
-      <c r="V20" s="324"/>
-      <c r="W20" s="324"/>
-      <c r="X20" s="325"/>
-      <c r="Y20" s="326" t="s">
+      <c r="U20" s="323"/>
+      <c r="V20" s="323"/>
+      <c r="W20" s="323"/>
+      <c r="X20" s="324"/>
+      <c r="Y20" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z20" s="327"/>
-      <c r="AA20" s="328" t="s">
+      <c r="Z20" s="335"/>
+      <c r="AA20" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB20" s="329"/>
-      <c r="AC20" s="330"/>
-      <c r="AD20" s="331">
+      <c r="AB20" s="319"/>
+      <c r="AC20" s="320"/>
+      <c r="AD20" s="321">
         <v>44903</v>
       </c>
-      <c r="AE20" s="329"/>
-      <c r="AF20" s="329"/>
-      <c r="AG20" s="330"/>
-      <c r="AH20" s="332"/>
-      <c r="AI20" s="324"/>
-      <c r="AJ20" s="324"/>
-      <c r="AK20" s="324"/>
-      <c r="AL20" s="324"/>
-      <c r="AM20" s="324"/>
-      <c r="AN20" s="325"/>
+      <c r="AE20" s="319"/>
+      <c r="AF20" s="319"/>
+      <c r="AG20" s="320"/>
+      <c r="AH20" s="322"/>
+      <c r="AI20" s="323"/>
+      <c r="AJ20" s="323"/>
+      <c r="AK20" s="323"/>
+      <c r="AL20" s="323"/>
+      <c r="AM20" s="323"/>
+      <c r="AN20" s="324"/>
     </row>
     <row r="21" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="181">
@@ -22284,46 +24078,46 @@
       <c r="J21" s="184"/>
       <c r="K21" s="184"/>
       <c r="L21" s="185"/>
-      <c r="M21" s="321" t="s">
+      <c r="M21" s="327" t="s">
         <v>208</v>
       </c>
-      <c r="N21" s="322"/>
-      <c r="O21" s="323" t="s">
+      <c r="N21" s="329"/>
+      <c r="O21" s="333" t="s">
         <v>312</v>
       </c>
-      <c r="P21" s="324"/>
-      <c r="Q21" s="324"/>
-      <c r="R21" s="324"/>
-      <c r="S21" s="325"/>
-      <c r="T21" s="323" t="s">
+      <c r="P21" s="323"/>
+      <c r="Q21" s="323"/>
+      <c r="R21" s="323"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U21" s="324"/>
-      <c r="V21" s="324"/>
-      <c r="W21" s="324"/>
-      <c r="X21" s="325"/>
-      <c r="Y21" s="326" t="s">
+      <c r="U21" s="323"/>
+      <c r="V21" s="323"/>
+      <c r="W21" s="323"/>
+      <c r="X21" s="324"/>
+      <c r="Y21" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z21" s="327"/>
-      <c r="AA21" s="328" t="s">
+      <c r="Z21" s="335"/>
+      <c r="AA21" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB21" s="329"/>
-      <c r="AC21" s="330"/>
-      <c r="AD21" s="331">
+      <c r="AB21" s="319"/>
+      <c r="AC21" s="320"/>
+      <c r="AD21" s="321">
         <v>44903</v>
       </c>
-      <c r="AE21" s="329"/>
-      <c r="AF21" s="329"/>
-      <c r="AG21" s="330"/>
-      <c r="AH21" s="332"/>
-      <c r="AI21" s="324"/>
-      <c r="AJ21" s="324"/>
-      <c r="AK21" s="324"/>
-      <c r="AL21" s="324"/>
-      <c r="AM21" s="324"/>
-      <c r="AN21" s="325"/>
+      <c r="AE21" s="319"/>
+      <c r="AF21" s="319"/>
+      <c r="AG21" s="320"/>
+      <c r="AH21" s="322"/>
+      <c r="AI21" s="323"/>
+      <c r="AJ21" s="323"/>
+      <c r="AK21" s="323"/>
+      <c r="AL21" s="323"/>
+      <c r="AM21" s="323"/>
+      <c r="AN21" s="324"/>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C23" s="164" t="s">
@@ -22417,20 +24211,20 @@
         <v>217</v>
       </c>
       <c r="D27" s="177"/>
-      <c r="E27" s="316" t="s">
+      <c r="E27" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="317"/>
-      <c r="G27" s="317"/>
-      <c r="H27" s="317"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="317"/>
-      <c r="L27" s="318"/>
-      <c r="M27" s="319" t="s">
+      <c r="F27" s="338"/>
+      <c r="G27" s="338"/>
+      <c r="H27" s="338"/>
+      <c r="I27" s="338"/>
+      <c r="J27" s="338"/>
+      <c r="K27" s="338"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="N27" s="320"/>
+      <c r="N27" s="361"/>
       <c r="O27" s="178" t="s">
         <v>160</v>
       </c>
@@ -22485,40 +24279,40 @@
       <c r="J28" s="195"/>
       <c r="K28" s="195"/>
       <c r="L28" s="196"/>
-      <c r="M28" s="333" t="s">
+      <c r="M28" s="343" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="334"/>
-      <c r="O28" s="335" t="s">
+      <c r="N28" s="344"/>
+      <c r="O28" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P28" s="336"/>
-      <c r="Q28" s="336"/>
-      <c r="R28" s="336"/>
-      <c r="S28" s="337"/>
-      <c r="T28" s="335"/>
-      <c r="U28" s="336"/>
-      <c r="V28" s="336"/>
-      <c r="W28" s="336"/>
-      <c r="X28" s="337"/>
-      <c r="Y28" s="338"/>
-      <c r="Z28" s="339"/>
-      <c r="AA28" s="340"/>
-      <c r="AB28" s="341"/>
-      <c r="AC28" s="342"/>
-      <c r="AD28" s="343"/>
-      <c r="AE28" s="341"/>
-      <c r="AF28" s="341"/>
-      <c r="AG28" s="342"/>
-      <c r="AH28" s="344" t="s">
+      <c r="P28" s="346"/>
+      <c r="Q28" s="346"/>
+      <c r="R28" s="346"/>
+      <c r="S28" s="347"/>
+      <c r="T28" s="345"/>
+      <c r="U28" s="346"/>
+      <c r="V28" s="346"/>
+      <c r="W28" s="346"/>
+      <c r="X28" s="347"/>
+      <c r="Y28" s="348"/>
+      <c r="Z28" s="349"/>
+      <c r="AA28" s="350"/>
+      <c r="AB28" s="351"/>
+      <c r="AC28" s="352"/>
+      <c r="AD28" s="353"/>
+      <c r="AE28" s="351"/>
+      <c r="AF28" s="351"/>
+      <c r="AG28" s="352"/>
+      <c r="AH28" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI28" s="336"/>
-      <c r="AJ28" s="336"/>
-      <c r="AK28" s="336"/>
-      <c r="AL28" s="336"/>
-      <c r="AM28" s="336"/>
-      <c r="AN28" s="337"/>
+      <c r="AI28" s="346"/>
+      <c r="AJ28" s="346"/>
+      <c r="AK28" s="346"/>
+      <c r="AL28" s="346"/>
+      <c r="AM28" s="346"/>
+      <c r="AN28" s="347"/>
     </row>
     <row r="29" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="192">
@@ -22535,40 +24329,40 @@
       <c r="J29" s="195"/>
       <c r="K29" s="195"/>
       <c r="L29" s="196"/>
-      <c r="M29" s="333" t="s">
+      <c r="M29" s="343" t="s">
         <v>208</v>
       </c>
-      <c r="N29" s="334"/>
-      <c r="O29" s="335" t="s">
+      <c r="N29" s="344"/>
+      <c r="O29" s="345" t="s">
         <v>312</v>
       </c>
-      <c r="P29" s="336"/>
-      <c r="Q29" s="336"/>
-      <c r="R29" s="336"/>
-      <c r="S29" s="337"/>
-      <c r="T29" s="335"/>
-      <c r="U29" s="336"/>
-      <c r="V29" s="336"/>
-      <c r="W29" s="336"/>
-      <c r="X29" s="337"/>
-      <c r="Y29" s="338"/>
-      <c r="Z29" s="339"/>
-      <c r="AA29" s="340"/>
-      <c r="AB29" s="341"/>
-      <c r="AC29" s="342"/>
-      <c r="AD29" s="343"/>
-      <c r="AE29" s="341"/>
-      <c r="AF29" s="341"/>
-      <c r="AG29" s="342"/>
-      <c r="AH29" s="344" t="s">
+      <c r="P29" s="346"/>
+      <c r="Q29" s="346"/>
+      <c r="R29" s="346"/>
+      <c r="S29" s="347"/>
+      <c r="T29" s="345"/>
+      <c r="U29" s="346"/>
+      <c r="V29" s="346"/>
+      <c r="W29" s="346"/>
+      <c r="X29" s="347"/>
+      <c r="Y29" s="348"/>
+      <c r="Z29" s="349"/>
+      <c r="AA29" s="350"/>
+      <c r="AB29" s="351"/>
+      <c r="AC29" s="352"/>
+      <c r="AD29" s="353"/>
+      <c r="AE29" s="351"/>
+      <c r="AF29" s="351"/>
+      <c r="AG29" s="352"/>
+      <c r="AH29" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI29" s="336"/>
-      <c r="AJ29" s="336"/>
-      <c r="AK29" s="336"/>
-      <c r="AL29" s="336"/>
-      <c r="AM29" s="336"/>
-      <c r="AN29" s="337"/>
+      <c r="AI29" s="346"/>
+      <c r="AJ29" s="346"/>
+      <c r="AK29" s="346"/>
+      <c r="AL29" s="346"/>
+      <c r="AM29" s="346"/>
+      <c r="AN29" s="347"/>
     </row>
     <row r="30" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="192">
@@ -22585,40 +24379,40 @@
       <c r="J30" s="195"/>
       <c r="K30" s="195"/>
       <c r="L30" s="196"/>
-      <c r="M30" s="333" t="s">
+      <c r="M30" s="343" t="s">
         <v>246</v>
       </c>
-      <c r="N30" s="334"/>
-      <c r="O30" s="335" t="s">
+      <c r="N30" s="344"/>
+      <c r="O30" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P30" s="336"/>
-      <c r="Q30" s="336"/>
-      <c r="R30" s="336"/>
-      <c r="S30" s="337"/>
-      <c r="T30" s="335"/>
-      <c r="U30" s="336"/>
-      <c r="V30" s="336"/>
-      <c r="W30" s="336"/>
-      <c r="X30" s="337"/>
-      <c r="Y30" s="338"/>
-      <c r="Z30" s="339"/>
-      <c r="AA30" s="340"/>
-      <c r="AB30" s="341"/>
-      <c r="AC30" s="342"/>
-      <c r="AD30" s="343"/>
-      <c r="AE30" s="341"/>
-      <c r="AF30" s="341"/>
-      <c r="AG30" s="342"/>
-      <c r="AH30" s="344" t="s">
+      <c r="P30" s="346"/>
+      <c r="Q30" s="346"/>
+      <c r="R30" s="346"/>
+      <c r="S30" s="347"/>
+      <c r="T30" s="345"/>
+      <c r="U30" s="346"/>
+      <c r="V30" s="346"/>
+      <c r="W30" s="346"/>
+      <c r="X30" s="347"/>
+      <c r="Y30" s="348"/>
+      <c r="Z30" s="349"/>
+      <c r="AA30" s="350"/>
+      <c r="AB30" s="351"/>
+      <c r="AC30" s="352"/>
+      <c r="AD30" s="353"/>
+      <c r="AE30" s="351"/>
+      <c r="AF30" s="351"/>
+      <c r="AG30" s="352"/>
+      <c r="AH30" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI30" s="336"/>
-      <c r="AJ30" s="336"/>
-      <c r="AK30" s="336"/>
-      <c r="AL30" s="336"/>
-      <c r="AM30" s="336"/>
-      <c r="AN30" s="337"/>
+      <c r="AI30" s="346"/>
+      <c r="AJ30" s="346"/>
+      <c r="AK30" s="346"/>
+      <c r="AL30" s="346"/>
+      <c r="AM30" s="346"/>
+      <c r="AN30" s="347"/>
     </row>
     <row r="31" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="192">
@@ -22635,40 +24429,40 @@
       <c r="J31" s="195"/>
       <c r="K31" s="195"/>
       <c r="L31" s="196"/>
-      <c r="M31" s="333" t="s">
+      <c r="M31" s="343" t="s">
         <v>246</v>
       </c>
-      <c r="N31" s="334"/>
-      <c r="O31" s="335" t="s">
+      <c r="N31" s="344"/>
+      <c r="O31" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P31" s="336"/>
-      <c r="Q31" s="336"/>
-      <c r="R31" s="336"/>
-      <c r="S31" s="337"/>
-      <c r="T31" s="335"/>
-      <c r="U31" s="336"/>
-      <c r="V31" s="336"/>
-      <c r="W31" s="336"/>
-      <c r="X31" s="337"/>
-      <c r="Y31" s="338"/>
-      <c r="Z31" s="339"/>
-      <c r="AA31" s="340"/>
-      <c r="AB31" s="341"/>
-      <c r="AC31" s="342"/>
-      <c r="AD31" s="343"/>
-      <c r="AE31" s="341"/>
-      <c r="AF31" s="341"/>
-      <c r="AG31" s="342"/>
-      <c r="AH31" s="344" t="s">
+      <c r="P31" s="346"/>
+      <c r="Q31" s="346"/>
+      <c r="R31" s="346"/>
+      <c r="S31" s="347"/>
+      <c r="T31" s="345"/>
+      <c r="U31" s="346"/>
+      <c r="V31" s="346"/>
+      <c r="W31" s="346"/>
+      <c r="X31" s="347"/>
+      <c r="Y31" s="348"/>
+      <c r="Z31" s="349"/>
+      <c r="AA31" s="350"/>
+      <c r="AB31" s="351"/>
+      <c r="AC31" s="352"/>
+      <c r="AD31" s="353"/>
+      <c r="AE31" s="351"/>
+      <c r="AF31" s="351"/>
+      <c r="AG31" s="352"/>
+      <c r="AH31" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI31" s="336"/>
-      <c r="AJ31" s="336"/>
-      <c r="AK31" s="336"/>
-      <c r="AL31" s="336"/>
-      <c r="AM31" s="336"/>
-      <c r="AN31" s="337"/>
+      <c r="AI31" s="346"/>
+      <c r="AJ31" s="346"/>
+      <c r="AK31" s="346"/>
+      <c r="AL31" s="346"/>
+      <c r="AM31" s="346"/>
+      <c r="AN31" s="347"/>
     </row>
     <row r="32" spans="3:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="192">
@@ -22685,40 +24479,40 @@
       <c r="J32" s="195"/>
       <c r="K32" s="195"/>
       <c r="L32" s="196"/>
-      <c r="M32" s="333" t="s">
+      <c r="M32" s="343" t="s">
         <v>247</v>
       </c>
-      <c r="N32" s="334"/>
-      <c r="O32" s="335" t="s">
+      <c r="N32" s="344"/>
+      <c r="O32" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P32" s="336"/>
-      <c r="Q32" s="336"/>
-      <c r="R32" s="336"/>
-      <c r="S32" s="337"/>
-      <c r="T32" s="335"/>
-      <c r="U32" s="336"/>
-      <c r="V32" s="336"/>
-      <c r="W32" s="336"/>
-      <c r="X32" s="337"/>
-      <c r="Y32" s="338"/>
-      <c r="Z32" s="339"/>
-      <c r="AA32" s="340"/>
-      <c r="AB32" s="341"/>
-      <c r="AC32" s="342"/>
-      <c r="AD32" s="343"/>
-      <c r="AE32" s="341"/>
-      <c r="AF32" s="341"/>
-      <c r="AG32" s="342"/>
-      <c r="AH32" s="344" t="s">
+      <c r="P32" s="346"/>
+      <c r="Q32" s="346"/>
+      <c r="R32" s="346"/>
+      <c r="S32" s="347"/>
+      <c r="T32" s="345"/>
+      <c r="U32" s="346"/>
+      <c r="V32" s="346"/>
+      <c r="W32" s="346"/>
+      <c r="X32" s="347"/>
+      <c r="Y32" s="348"/>
+      <c r="Z32" s="349"/>
+      <c r="AA32" s="350"/>
+      <c r="AB32" s="351"/>
+      <c r="AC32" s="352"/>
+      <c r="AD32" s="353"/>
+      <c r="AE32" s="351"/>
+      <c r="AF32" s="351"/>
+      <c r="AG32" s="352"/>
+      <c r="AH32" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI32" s="336"/>
-      <c r="AJ32" s="336"/>
-      <c r="AK32" s="336"/>
-      <c r="AL32" s="336"/>
-      <c r="AM32" s="336"/>
-      <c r="AN32" s="337"/>
+      <c r="AI32" s="346"/>
+      <c r="AJ32" s="346"/>
+      <c r="AK32" s="346"/>
+      <c r="AL32" s="346"/>
+      <c r="AM32" s="346"/>
+      <c r="AN32" s="347"/>
     </row>
     <row r="33" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="192">
@@ -22735,40 +24529,40 @@
       <c r="J33" s="195"/>
       <c r="K33" s="195"/>
       <c r="L33" s="196"/>
-      <c r="M33" s="333" t="s">
+      <c r="M33" s="343" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="334"/>
-      <c r="O33" s="335" t="s">
+      <c r="N33" s="344"/>
+      <c r="O33" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P33" s="336"/>
-      <c r="Q33" s="336"/>
-      <c r="R33" s="336"/>
-      <c r="S33" s="337"/>
-      <c r="T33" s="335"/>
-      <c r="U33" s="336"/>
-      <c r="V33" s="336"/>
-      <c r="W33" s="336"/>
-      <c r="X33" s="337"/>
-      <c r="Y33" s="338"/>
-      <c r="Z33" s="339"/>
-      <c r="AA33" s="340"/>
-      <c r="AB33" s="341"/>
-      <c r="AC33" s="342"/>
-      <c r="AD33" s="343"/>
-      <c r="AE33" s="341"/>
-      <c r="AF33" s="341"/>
-      <c r="AG33" s="342"/>
-      <c r="AH33" s="344" t="s">
+      <c r="P33" s="346"/>
+      <c r="Q33" s="346"/>
+      <c r="R33" s="346"/>
+      <c r="S33" s="347"/>
+      <c r="T33" s="345"/>
+      <c r="U33" s="346"/>
+      <c r="V33" s="346"/>
+      <c r="W33" s="346"/>
+      <c r="X33" s="347"/>
+      <c r="Y33" s="348"/>
+      <c r="Z33" s="349"/>
+      <c r="AA33" s="350"/>
+      <c r="AB33" s="351"/>
+      <c r="AC33" s="352"/>
+      <c r="AD33" s="353"/>
+      <c r="AE33" s="351"/>
+      <c r="AF33" s="351"/>
+      <c r="AG33" s="352"/>
+      <c r="AH33" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI33" s="336"/>
-      <c r="AJ33" s="336"/>
-      <c r="AK33" s="336"/>
-      <c r="AL33" s="336"/>
-      <c r="AM33" s="336"/>
-      <c r="AN33" s="337"/>
+      <c r="AI33" s="346"/>
+      <c r="AJ33" s="346"/>
+      <c r="AK33" s="346"/>
+      <c r="AL33" s="346"/>
+      <c r="AM33" s="346"/>
+      <c r="AN33" s="347"/>
     </row>
     <row r="34" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="192">
@@ -22785,40 +24579,40 @@
       <c r="J34" s="195"/>
       <c r="K34" s="195"/>
       <c r="L34" s="196"/>
-      <c r="M34" s="333" t="s">
+      <c r="M34" s="343" t="s">
         <v>246</v>
       </c>
-      <c r="N34" s="334"/>
-      <c r="O34" s="335" t="s">
+      <c r="N34" s="344"/>
+      <c r="O34" s="345" t="s">
         <v>249</v>
       </c>
-      <c r="P34" s="336"/>
-      <c r="Q34" s="336"/>
-      <c r="R34" s="336"/>
-      <c r="S34" s="337"/>
-      <c r="T34" s="335"/>
-      <c r="U34" s="336"/>
-      <c r="V34" s="336"/>
-      <c r="W34" s="336"/>
-      <c r="X34" s="337"/>
-      <c r="Y34" s="338"/>
-      <c r="Z34" s="339"/>
-      <c r="AA34" s="340"/>
-      <c r="AB34" s="341"/>
-      <c r="AC34" s="342"/>
-      <c r="AD34" s="343"/>
-      <c r="AE34" s="341"/>
-      <c r="AF34" s="341"/>
-      <c r="AG34" s="342"/>
-      <c r="AH34" s="344" t="s">
+      <c r="P34" s="346"/>
+      <c r="Q34" s="346"/>
+      <c r="R34" s="346"/>
+      <c r="S34" s="347"/>
+      <c r="T34" s="345"/>
+      <c r="U34" s="346"/>
+      <c r="V34" s="346"/>
+      <c r="W34" s="346"/>
+      <c r="X34" s="347"/>
+      <c r="Y34" s="348"/>
+      <c r="Z34" s="349"/>
+      <c r="AA34" s="350"/>
+      <c r="AB34" s="351"/>
+      <c r="AC34" s="352"/>
+      <c r="AD34" s="353"/>
+      <c r="AE34" s="351"/>
+      <c r="AF34" s="351"/>
+      <c r="AG34" s="352"/>
+      <c r="AH34" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI34" s="336"/>
-      <c r="AJ34" s="336"/>
-      <c r="AK34" s="336"/>
-      <c r="AL34" s="336"/>
-      <c r="AM34" s="336"/>
-      <c r="AN34" s="337"/>
+      <c r="AI34" s="346"/>
+      <c r="AJ34" s="346"/>
+      <c r="AK34" s="346"/>
+      <c r="AL34" s="346"/>
+      <c r="AM34" s="346"/>
+      <c r="AN34" s="347"/>
     </row>
     <row r="35" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="192">
@@ -22835,40 +24629,40 @@
       <c r="J35" s="195"/>
       <c r="K35" s="195"/>
       <c r="L35" s="196"/>
-      <c r="M35" s="333" t="s">
+      <c r="M35" s="343" t="s">
         <v>248</v>
       </c>
-      <c r="N35" s="334"/>
-      <c r="O35" s="335" t="s">
+      <c r="N35" s="344"/>
+      <c r="O35" s="345" t="s">
         <v>312</v>
       </c>
-      <c r="P35" s="336"/>
-      <c r="Q35" s="336"/>
-      <c r="R35" s="336"/>
-      <c r="S35" s="337"/>
-      <c r="T35" s="335"/>
-      <c r="U35" s="336"/>
-      <c r="V35" s="336"/>
-      <c r="W35" s="336"/>
-      <c r="X35" s="337"/>
-      <c r="Y35" s="338"/>
-      <c r="Z35" s="339"/>
-      <c r="AA35" s="340"/>
-      <c r="AB35" s="341"/>
-      <c r="AC35" s="342"/>
-      <c r="AD35" s="343"/>
-      <c r="AE35" s="341"/>
-      <c r="AF35" s="341"/>
-      <c r="AG35" s="342"/>
-      <c r="AH35" s="344" t="s">
+      <c r="P35" s="346"/>
+      <c r="Q35" s="346"/>
+      <c r="R35" s="346"/>
+      <c r="S35" s="347"/>
+      <c r="T35" s="345"/>
+      <c r="U35" s="346"/>
+      <c r="V35" s="346"/>
+      <c r="W35" s="346"/>
+      <c r="X35" s="347"/>
+      <c r="Y35" s="348"/>
+      <c r="Z35" s="349"/>
+      <c r="AA35" s="350"/>
+      <c r="AB35" s="351"/>
+      <c r="AC35" s="352"/>
+      <c r="AD35" s="353"/>
+      <c r="AE35" s="351"/>
+      <c r="AF35" s="351"/>
+      <c r="AG35" s="352"/>
+      <c r="AH35" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI35" s="336"/>
-      <c r="AJ35" s="336"/>
-      <c r="AK35" s="336"/>
-      <c r="AL35" s="336"/>
-      <c r="AM35" s="336"/>
-      <c r="AN35" s="337"/>
+      <c r="AI35" s="346"/>
+      <c r="AJ35" s="346"/>
+      <c r="AK35" s="346"/>
+      <c r="AL35" s="346"/>
+      <c r="AM35" s="346"/>
+      <c r="AN35" s="347"/>
     </row>
     <row r="36" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="187">
@@ -22885,46 +24679,46 @@
       <c r="J36" s="190"/>
       <c r="K36" s="190"/>
       <c r="L36" s="191"/>
-      <c r="M36" s="348" t="s">
+      <c r="M36" s="355" t="s">
         <v>246</v>
       </c>
-      <c r="N36" s="349"/>
-      <c r="O36" s="350" t="s">
+      <c r="N36" s="356"/>
+      <c r="O36" s="357" t="s">
         <v>249</v>
       </c>
-      <c r="P36" s="351"/>
-      <c r="Q36" s="351"/>
-      <c r="R36" s="351"/>
-      <c r="S36" s="352"/>
-      <c r="T36" s="323" t="s">
+      <c r="P36" s="358"/>
+      <c r="Q36" s="358"/>
+      <c r="R36" s="358"/>
+      <c r="S36" s="359"/>
+      <c r="T36" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="U36" s="324"/>
-      <c r="V36" s="324"/>
-      <c r="W36" s="324"/>
-      <c r="X36" s="325"/>
-      <c r="Y36" s="326" t="s">
+      <c r="U36" s="323"/>
+      <c r="V36" s="323"/>
+      <c r="W36" s="323"/>
+      <c r="X36" s="324"/>
+      <c r="Y36" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="Z36" s="327"/>
-      <c r="AA36" s="328" t="s">
+      <c r="Z36" s="335"/>
+      <c r="AA36" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AB36" s="329"/>
-      <c r="AC36" s="330"/>
-      <c r="AD36" s="331">
+      <c r="AB36" s="319"/>
+      <c r="AC36" s="320"/>
+      <c r="AD36" s="321">
         <v>44903</v>
       </c>
-      <c r="AE36" s="329"/>
-      <c r="AF36" s="329"/>
-      <c r="AG36" s="330"/>
-      <c r="AH36" s="345"/>
-      <c r="AI36" s="346"/>
-      <c r="AJ36" s="346"/>
-      <c r="AK36" s="346"/>
-      <c r="AL36" s="346"/>
-      <c r="AM36" s="346"/>
-      <c r="AN36" s="347"/>
+      <c r="AE36" s="319"/>
+      <c r="AF36" s="319"/>
+      <c r="AG36" s="320"/>
+      <c r="AH36" s="340"/>
+      <c r="AI36" s="341"/>
+      <c r="AJ36" s="341"/>
+      <c r="AK36" s="341"/>
+      <c r="AL36" s="341"/>
+      <c r="AM36" s="341"/>
+      <c r="AN36" s="342"/>
     </row>
     <row r="37" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="192">
@@ -22941,40 +24735,40 @@
       <c r="J37" s="195"/>
       <c r="K37" s="195"/>
       <c r="L37" s="196"/>
-      <c r="M37" s="333" t="s">
+      <c r="M37" s="343" t="s">
         <v>208</v>
       </c>
-      <c r="N37" s="334"/>
-      <c r="O37" s="335" t="s">
+      <c r="N37" s="344"/>
+      <c r="O37" s="345" t="s">
         <v>313</v>
       </c>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
-      <c r="S37" s="337"/>
-      <c r="T37" s="335"/>
-      <c r="U37" s="336"/>
-      <c r="V37" s="336"/>
-      <c r="W37" s="336"/>
-      <c r="X37" s="337"/>
-      <c r="Y37" s="338"/>
-      <c r="Z37" s="339"/>
-      <c r="AA37" s="340"/>
-      <c r="AB37" s="341"/>
-      <c r="AC37" s="342"/>
-      <c r="AD37" s="343"/>
-      <c r="AE37" s="341"/>
-      <c r="AF37" s="341"/>
-      <c r="AG37" s="342"/>
-      <c r="AH37" s="344" t="s">
+      <c r="P37" s="346"/>
+      <c r="Q37" s="346"/>
+      <c r="R37" s="346"/>
+      <c r="S37" s="347"/>
+      <c r="T37" s="345"/>
+      <c r="U37" s="346"/>
+      <c r="V37" s="346"/>
+      <c r="W37" s="346"/>
+      <c r="X37" s="347"/>
+      <c r="Y37" s="348"/>
+      <c r="Z37" s="349"/>
+      <c r="AA37" s="350"/>
+      <c r="AB37" s="351"/>
+      <c r="AC37" s="352"/>
+      <c r="AD37" s="353"/>
+      <c r="AE37" s="351"/>
+      <c r="AF37" s="351"/>
+      <c r="AG37" s="352"/>
+      <c r="AH37" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="AI37" s="336"/>
-      <c r="AJ37" s="336"/>
-      <c r="AK37" s="336"/>
-      <c r="AL37" s="336"/>
-      <c r="AM37" s="336"/>
-      <c r="AN37" s="337"/>
+      <c r="AI37" s="346"/>
+      <c r="AJ37" s="346"/>
+      <c r="AK37" s="346"/>
+      <c r="AL37" s="346"/>
+      <c r="AM37" s="346"/>
+      <c r="AN37" s="347"/>
     </row>
     <row r="40" spans="2:53" x14ac:dyDescent="0.15">
       <c r="B40" s="164" t="s">
@@ -23081,35 +24875,35 @@
         <v>217</v>
       </c>
       <c r="D44" s="177"/>
-      <c r="E44" s="316" t="s">
+      <c r="E44" s="337" t="s">
         <v>225</v>
       </c>
-      <c r="F44" s="317"/>
-      <c r="G44" s="317"/>
-      <c r="H44" s="317"/>
-      <c r="I44" s="317"/>
-      <c r="J44" s="317"/>
-      <c r="K44" s="317"/>
-      <c r="L44" s="318"/>
-      <c r="M44" s="316" t="s">
+      <c r="F44" s="338"/>
+      <c r="G44" s="338"/>
+      <c r="H44" s="338"/>
+      <c r="I44" s="338"/>
+      <c r="J44" s="338"/>
+      <c r="K44" s="338"/>
+      <c r="L44" s="339"/>
+      <c r="M44" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="N44" s="317"/>
-      <c r="O44" s="317"/>
-      <c r="P44" s="317"/>
-      <c r="Q44" s="318"/>
-      <c r="R44" s="317" t="s">
+      <c r="N44" s="338"/>
+      <c r="O44" s="338"/>
+      <c r="P44" s="338"/>
+      <c r="Q44" s="339"/>
+      <c r="R44" s="338" t="s">
         <v>227</v>
       </c>
-      <c r="S44" s="317"/>
-      <c r="T44" s="317"/>
-      <c r="U44" s="317"/>
-      <c r="V44" s="317"/>
-      <c r="W44" s="317"/>
-      <c r="X44" s="317"/>
-      <c r="Y44" s="317"/>
-      <c r="Z44" s="317"/>
-      <c r="AA44" s="318"/>
+      <c r="S44" s="338"/>
+      <c r="T44" s="338"/>
+      <c r="U44" s="338"/>
+      <c r="V44" s="338"/>
+      <c r="W44" s="338"/>
+      <c r="X44" s="338"/>
+      <c r="Y44" s="338"/>
+      <c r="Z44" s="338"/>
+      <c r="AA44" s="339"/>
       <c r="AB44" s="178" t="s">
         <v>160</v>
       </c>
@@ -23154,855 +24948,757 @@
         <v>1</v>
       </c>
       <c r="D45" s="182"/>
-      <c r="E45" s="356" t="s">
+      <c r="E45" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="F45" s="267"/>
-      <c r="G45" s="267"/>
-      <c r="H45" s="267"/>
-      <c r="I45" s="267"/>
-      <c r="J45" s="267"/>
-      <c r="K45" s="267"/>
-      <c r="L45" s="268"/>
-      <c r="M45" s="357" t="s">
+      <c r="F45" s="304"/>
+      <c r="G45" s="304"/>
+      <c r="H45" s="304"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="304"/>
+      <c r="K45" s="304"/>
+      <c r="L45" s="305"/>
+      <c r="M45" s="326" t="s">
         <v>230</v>
       </c>
-      <c r="N45" s="267"/>
-      <c r="O45" s="267"/>
-      <c r="P45" s="267"/>
-      <c r="Q45" s="268"/>
-      <c r="R45" s="321"/>
-      <c r="S45" s="358"/>
-      <c r="T45" s="358"/>
-      <c r="U45" s="358"/>
-      <c r="V45" s="358"/>
-      <c r="W45" s="358"/>
-      <c r="X45" s="358"/>
-      <c r="Y45" s="358"/>
-      <c r="Z45" s="358"/>
-      <c r="AA45" s="322"/>
-      <c r="AB45" s="353" t="s">
+      <c r="N45" s="304"/>
+      <c r="O45" s="304"/>
+      <c r="P45" s="304"/>
+      <c r="Q45" s="305"/>
+      <c r="R45" s="327"/>
+      <c r="S45" s="328"/>
+      <c r="T45" s="328"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="328"/>
+      <c r="W45" s="328"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="328"/>
+      <c r="Z45" s="328"/>
+      <c r="AA45" s="329"/>
+      <c r="AB45" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC45" s="354"/>
-      <c r="AD45" s="354"/>
-      <c r="AE45" s="354"/>
-      <c r="AF45" s="355"/>
-      <c r="AG45" s="323" t="s">
+      <c r="AC45" s="331"/>
+      <c r="AD45" s="331"/>
+      <c r="AE45" s="331"/>
+      <c r="AF45" s="332"/>
+      <c r="AG45" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH45" s="324"/>
-      <c r="AI45" s="324"/>
-      <c r="AJ45" s="324"/>
-      <c r="AK45" s="325"/>
-      <c r="AL45" s="326" t="s">
+      <c r="AH45" s="323"/>
+      <c r="AI45" s="323"/>
+      <c r="AJ45" s="323"/>
+      <c r="AK45" s="324"/>
+      <c r="AL45" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM45" s="327"/>
-      <c r="AN45" s="328" t="s">
+      <c r="AM45" s="335"/>
+      <c r="AN45" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO45" s="329"/>
-      <c r="AP45" s="330"/>
-      <c r="AQ45" s="331">
+      <c r="AO45" s="319"/>
+      <c r="AP45" s="320"/>
+      <c r="AQ45" s="321">
         <v>44897</v>
       </c>
-      <c r="AR45" s="329"/>
-      <c r="AS45" s="329"/>
-      <c r="AT45" s="330"/>
-      <c r="AU45" s="332"/>
-      <c r="AV45" s="324"/>
-      <c r="AW45" s="324"/>
-      <c r="AX45" s="324"/>
-      <c r="AY45" s="324"/>
-      <c r="AZ45" s="324"/>
-      <c r="BA45" s="325"/>
+      <c r="AR45" s="319"/>
+      <c r="AS45" s="319"/>
+      <c r="AT45" s="320"/>
+      <c r="AU45" s="322"/>
+      <c r="AV45" s="323"/>
+      <c r="AW45" s="323"/>
+      <c r="AX45" s="323"/>
+      <c r="AY45" s="323"/>
+      <c r="AZ45" s="323"/>
+      <c r="BA45" s="324"/>
     </row>
     <row r="46" spans="2:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="181">
         <v>2</v>
       </c>
       <c r="D46" s="182"/>
-      <c r="E46" s="356" t="s">
+      <c r="E46" s="325" t="s">
         <v>251</v>
       </c>
-      <c r="F46" s="267"/>
-      <c r="G46" s="267"/>
-      <c r="H46" s="267"/>
-      <c r="I46" s="267"/>
-      <c r="J46" s="267"/>
-      <c r="K46" s="267"/>
-      <c r="L46" s="268"/>
-      <c r="M46" s="357" t="s">
+      <c r="F46" s="304"/>
+      <c r="G46" s="304"/>
+      <c r="H46" s="304"/>
+      <c r="I46" s="304"/>
+      <c r="J46" s="304"/>
+      <c r="K46" s="304"/>
+      <c r="L46" s="305"/>
+      <c r="M46" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="N46" s="267"/>
-      <c r="O46" s="267"/>
-      <c r="P46" s="267"/>
-      <c r="Q46" s="268"/>
-      <c r="R46" s="321" t="s">
+      <c r="N46" s="304"/>
+      <c r="O46" s="304"/>
+      <c r="P46" s="304"/>
+      <c r="Q46" s="305"/>
+      <c r="R46" s="327" t="s">
         <v>254</v>
       </c>
-      <c r="S46" s="358"/>
-      <c r="T46" s="358"/>
-      <c r="U46" s="358"/>
-      <c r="V46" s="358"/>
-      <c r="W46" s="358"/>
-      <c r="X46" s="358"/>
-      <c r="Y46" s="358"/>
-      <c r="Z46" s="358"/>
-      <c r="AA46" s="322"/>
-      <c r="AB46" s="353" t="s">
+      <c r="S46" s="328"/>
+      <c r="T46" s="328"/>
+      <c r="U46" s="328"/>
+      <c r="V46" s="328"/>
+      <c r="W46" s="328"/>
+      <c r="X46" s="328"/>
+      <c r="Y46" s="328"/>
+      <c r="Z46" s="328"/>
+      <c r="AA46" s="329"/>
+      <c r="AB46" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC46" s="354"/>
-      <c r="AD46" s="354"/>
-      <c r="AE46" s="354"/>
-      <c r="AF46" s="355"/>
-      <c r="AG46" s="323" t="s">
+      <c r="AC46" s="331"/>
+      <c r="AD46" s="331"/>
+      <c r="AE46" s="331"/>
+      <c r="AF46" s="332"/>
+      <c r="AG46" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH46" s="324"/>
-      <c r="AI46" s="324"/>
-      <c r="AJ46" s="324"/>
-      <c r="AK46" s="325"/>
-      <c r="AL46" s="326" t="s">
+      <c r="AH46" s="323"/>
+      <c r="AI46" s="323"/>
+      <c r="AJ46" s="323"/>
+      <c r="AK46" s="324"/>
+      <c r="AL46" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM46" s="327"/>
-      <c r="AN46" s="328" t="s">
+      <c r="AM46" s="335"/>
+      <c r="AN46" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO46" s="329"/>
-      <c r="AP46" s="330"/>
-      <c r="AQ46" s="331">
+      <c r="AO46" s="319"/>
+      <c r="AP46" s="320"/>
+      <c r="AQ46" s="321">
         <v>44897</v>
       </c>
-      <c r="AR46" s="329"/>
-      <c r="AS46" s="329"/>
-      <c r="AT46" s="330"/>
-      <c r="AU46" s="332"/>
-      <c r="AV46" s="324"/>
-      <c r="AW46" s="324"/>
-      <c r="AX46" s="324"/>
-      <c r="AY46" s="324"/>
-      <c r="AZ46" s="324"/>
-      <c r="BA46" s="325"/>
+      <c r="AR46" s="319"/>
+      <c r="AS46" s="319"/>
+      <c r="AT46" s="320"/>
+      <c r="AU46" s="322"/>
+      <c r="AV46" s="323"/>
+      <c r="AW46" s="323"/>
+      <c r="AX46" s="323"/>
+      <c r="AY46" s="323"/>
+      <c r="AZ46" s="323"/>
+      <c r="BA46" s="324"/>
     </row>
     <row r="47" spans="2:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="181">
         <v>3</v>
       </c>
       <c r="D47" s="182"/>
-      <c r="E47" s="356" t="s">
+      <c r="E47" s="325" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="267"/>
-      <c r="G47" s="267"/>
-      <c r="H47" s="267"/>
-      <c r="I47" s="267"/>
-      <c r="J47" s="267"/>
-      <c r="K47" s="267"/>
-      <c r="L47" s="268"/>
-      <c r="M47" s="359" t="s">
+      <c r="F47" s="304"/>
+      <c r="G47" s="304"/>
+      <c r="H47" s="304"/>
+      <c r="I47" s="304"/>
+      <c r="J47" s="304"/>
+      <c r="K47" s="304"/>
+      <c r="L47" s="305"/>
+      <c r="M47" s="336" t="s">
         <v>231</v>
       </c>
-      <c r="N47" s="267"/>
-      <c r="O47" s="267"/>
-      <c r="P47" s="267"/>
-      <c r="Q47" s="268"/>
-      <c r="R47" s="321"/>
-      <c r="S47" s="358"/>
-      <c r="T47" s="358"/>
-      <c r="U47" s="358"/>
-      <c r="V47" s="358"/>
-      <c r="W47" s="358"/>
-      <c r="X47" s="358"/>
-      <c r="Y47" s="358"/>
-      <c r="Z47" s="358"/>
-      <c r="AA47" s="322"/>
-      <c r="AB47" s="353" t="s">
+      <c r="N47" s="304"/>
+      <c r="O47" s="304"/>
+      <c r="P47" s="304"/>
+      <c r="Q47" s="305"/>
+      <c r="R47" s="327"/>
+      <c r="S47" s="328"/>
+      <c r="T47" s="328"/>
+      <c r="U47" s="328"/>
+      <c r="V47" s="328"/>
+      <c r="W47" s="328"/>
+      <c r="X47" s="328"/>
+      <c r="Y47" s="328"/>
+      <c r="Z47" s="328"/>
+      <c r="AA47" s="329"/>
+      <c r="AB47" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC47" s="354"/>
-      <c r="AD47" s="354"/>
-      <c r="AE47" s="354"/>
-      <c r="AF47" s="355"/>
-      <c r="AG47" s="323" t="s">
+      <c r="AC47" s="331"/>
+      <c r="AD47" s="331"/>
+      <c r="AE47" s="331"/>
+      <c r="AF47" s="332"/>
+      <c r="AG47" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH47" s="324"/>
-      <c r="AI47" s="324"/>
-      <c r="AJ47" s="324"/>
-      <c r="AK47" s="325"/>
-      <c r="AL47" s="326" t="s">
+      <c r="AH47" s="323"/>
+      <c r="AI47" s="323"/>
+      <c r="AJ47" s="323"/>
+      <c r="AK47" s="324"/>
+      <c r="AL47" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM47" s="327"/>
-      <c r="AN47" s="328" t="s">
+      <c r="AM47" s="335"/>
+      <c r="AN47" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO47" s="329"/>
-      <c r="AP47" s="330"/>
-      <c r="AQ47" s="331">
+      <c r="AO47" s="319"/>
+      <c r="AP47" s="320"/>
+      <c r="AQ47" s="321">
         <v>44897</v>
       </c>
-      <c r="AR47" s="329"/>
-      <c r="AS47" s="329"/>
-      <c r="AT47" s="330"/>
-      <c r="AU47" s="332"/>
-      <c r="AV47" s="324"/>
-      <c r="AW47" s="324"/>
-      <c r="AX47" s="324"/>
-      <c r="AY47" s="324"/>
-      <c r="AZ47" s="324"/>
-      <c r="BA47" s="325"/>
+      <c r="AR47" s="319"/>
+      <c r="AS47" s="319"/>
+      <c r="AT47" s="320"/>
+      <c r="AU47" s="322"/>
+      <c r="AV47" s="323"/>
+      <c r="AW47" s="323"/>
+      <c r="AX47" s="323"/>
+      <c r="AY47" s="323"/>
+      <c r="AZ47" s="323"/>
+      <c r="BA47" s="324"/>
     </row>
     <row r="48" spans="2:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="181">
         <v>4</v>
       </c>
       <c r="D48" s="182"/>
-      <c r="E48" s="356" t="s">
+      <c r="E48" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="267"/>
-      <c r="G48" s="267"/>
-      <c r="H48" s="267"/>
-      <c r="I48" s="267"/>
-      <c r="J48" s="267"/>
-      <c r="K48" s="267"/>
-      <c r="L48" s="268"/>
-      <c r="M48" s="357" t="s">
+      <c r="F48" s="304"/>
+      <c r="G48" s="304"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="304"/>
+      <c r="J48" s="304"/>
+      <c r="K48" s="304"/>
+      <c r="L48" s="305"/>
+      <c r="M48" s="326" t="s">
         <v>232</v>
       </c>
-      <c r="N48" s="267"/>
-      <c r="O48" s="267"/>
-      <c r="P48" s="267"/>
-      <c r="Q48" s="268"/>
-      <c r="R48" s="321"/>
-      <c r="S48" s="358"/>
-      <c r="T48" s="358"/>
-      <c r="U48" s="358"/>
-      <c r="V48" s="358"/>
-      <c r="W48" s="358"/>
-      <c r="X48" s="358"/>
-      <c r="Y48" s="358"/>
-      <c r="Z48" s="358"/>
-      <c r="AA48" s="322"/>
-      <c r="AB48" s="353" t="s">
+      <c r="N48" s="304"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="304"/>
+      <c r="Q48" s="305"/>
+      <c r="R48" s="327"/>
+      <c r="S48" s="328"/>
+      <c r="T48" s="328"/>
+      <c r="U48" s="328"/>
+      <c r="V48" s="328"/>
+      <c r="W48" s="328"/>
+      <c r="X48" s="328"/>
+      <c r="Y48" s="328"/>
+      <c r="Z48" s="328"/>
+      <c r="AA48" s="329"/>
+      <c r="AB48" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC48" s="354"/>
-      <c r="AD48" s="354"/>
-      <c r="AE48" s="354"/>
-      <c r="AF48" s="355"/>
-      <c r="AG48" s="323" t="s">
+      <c r="AC48" s="331"/>
+      <c r="AD48" s="331"/>
+      <c r="AE48" s="331"/>
+      <c r="AF48" s="332"/>
+      <c r="AG48" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH48" s="324"/>
-      <c r="AI48" s="324"/>
-      <c r="AJ48" s="324"/>
-      <c r="AK48" s="325"/>
-      <c r="AL48" s="326" t="s">
+      <c r="AH48" s="323"/>
+      <c r="AI48" s="323"/>
+      <c r="AJ48" s="323"/>
+      <c r="AK48" s="324"/>
+      <c r="AL48" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM48" s="327"/>
-      <c r="AN48" s="328" t="s">
+      <c r="AM48" s="335"/>
+      <c r="AN48" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO48" s="329"/>
-      <c r="AP48" s="330"/>
-      <c r="AQ48" s="331">
+      <c r="AO48" s="319"/>
+      <c r="AP48" s="320"/>
+      <c r="AQ48" s="321">
         <v>44897</v>
       </c>
-      <c r="AR48" s="329"/>
-      <c r="AS48" s="329"/>
-      <c r="AT48" s="330"/>
-      <c r="AU48" s="332"/>
-      <c r="AV48" s="324"/>
-      <c r="AW48" s="324"/>
-      <c r="AX48" s="324"/>
-      <c r="AY48" s="324"/>
-      <c r="AZ48" s="324"/>
-      <c r="BA48" s="325"/>
+      <c r="AR48" s="319"/>
+      <c r="AS48" s="319"/>
+      <c r="AT48" s="320"/>
+      <c r="AU48" s="322"/>
+      <c r="AV48" s="323"/>
+      <c r="AW48" s="323"/>
+      <c r="AX48" s="323"/>
+      <c r="AY48" s="323"/>
+      <c r="AZ48" s="323"/>
+      <c r="BA48" s="324"/>
     </row>
     <row r="49" spans="3:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="181">
         <v>5</v>
       </c>
       <c r="D49" s="182"/>
-      <c r="E49" s="356" t="s">
+      <c r="E49" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="F49" s="267"/>
-      <c r="G49" s="267"/>
-      <c r="H49" s="267"/>
-      <c r="I49" s="267"/>
-      <c r="J49" s="267"/>
-      <c r="K49" s="267"/>
-      <c r="L49" s="268"/>
-      <c r="M49" s="357" t="s">
+      <c r="F49" s="304"/>
+      <c r="G49" s="304"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="304"/>
+      <c r="J49" s="304"/>
+      <c r="K49" s="304"/>
+      <c r="L49" s="305"/>
+      <c r="M49" s="326" t="s">
         <v>233</v>
       </c>
-      <c r="N49" s="267"/>
-      <c r="O49" s="267"/>
-      <c r="P49" s="267"/>
-      <c r="Q49" s="268"/>
-      <c r="R49" s="321" t="s">
+      <c r="N49" s="304"/>
+      <c r="O49" s="304"/>
+      <c r="P49" s="304"/>
+      <c r="Q49" s="305"/>
+      <c r="R49" s="327" t="s">
         <v>255</v>
       </c>
-      <c r="S49" s="358"/>
-      <c r="T49" s="358"/>
-      <c r="U49" s="358"/>
-      <c r="V49" s="358"/>
-      <c r="W49" s="358"/>
-      <c r="X49" s="358"/>
-      <c r="Y49" s="358"/>
-      <c r="Z49" s="358"/>
-      <c r="AA49" s="322"/>
-      <c r="AB49" s="353" t="s">
+      <c r="S49" s="328"/>
+      <c r="T49" s="328"/>
+      <c r="U49" s="328"/>
+      <c r="V49" s="328"/>
+      <c r="W49" s="328"/>
+      <c r="X49" s="328"/>
+      <c r="Y49" s="328"/>
+      <c r="Z49" s="328"/>
+      <c r="AA49" s="329"/>
+      <c r="AB49" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC49" s="354"/>
-      <c r="AD49" s="354"/>
-      <c r="AE49" s="354"/>
-      <c r="AF49" s="355"/>
-      <c r="AG49" s="323" t="s">
+      <c r="AC49" s="331"/>
+      <c r="AD49" s="331"/>
+      <c r="AE49" s="331"/>
+      <c r="AF49" s="332"/>
+      <c r="AG49" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH49" s="324"/>
-      <c r="AI49" s="324"/>
-      <c r="AJ49" s="324"/>
-      <c r="AK49" s="325"/>
-      <c r="AL49" s="326" t="s">
+      <c r="AH49" s="323"/>
+      <c r="AI49" s="323"/>
+      <c r="AJ49" s="323"/>
+      <c r="AK49" s="324"/>
+      <c r="AL49" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM49" s="327"/>
-      <c r="AN49" s="328" t="s">
+      <c r="AM49" s="335"/>
+      <c r="AN49" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO49" s="329"/>
-      <c r="AP49" s="330"/>
-      <c r="AQ49" s="331">
+      <c r="AO49" s="319"/>
+      <c r="AP49" s="320"/>
+      <c r="AQ49" s="321">
         <v>44897</v>
       </c>
-      <c r="AR49" s="329"/>
-      <c r="AS49" s="329"/>
-      <c r="AT49" s="330"/>
-      <c r="AU49" s="332"/>
-      <c r="AV49" s="324"/>
-      <c r="AW49" s="324"/>
-      <c r="AX49" s="324"/>
-      <c r="AY49" s="324"/>
-      <c r="AZ49" s="324"/>
-      <c r="BA49" s="325"/>
+      <c r="AR49" s="319"/>
+      <c r="AS49" s="319"/>
+      <c r="AT49" s="320"/>
+      <c r="AU49" s="322"/>
+      <c r="AV49" s="323"/>
+      <c r="AW49" s="323"/>
+      <c r="AX49" s="323"/>
+      <c r="AY49" s="323"/>
+      <c r="AZ49" s="323"/>
+      <c r="BA49" s="324"/>
     </row>
     <row r="50" spans="3:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="181">
         <v>6</v>
       </c>
       <c r="D50" s="182"/>
-      <c r="E50" s="356" t="s">
+      <c r="E50" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="267"/>
-      <c r="G50" s="267"/>
-      <c r="H50" s="267"/>
-      <c r="I50" s="267"/>
-      <c r="J50" s="267"/>
-      <c r="K50" s="267"/>
-      <c r="L50" s="268"/>
-      <c r="M50" s="357" t="s">
+      <c r="F50" s="304"/>
+      <c r="G50" s="304"/>
+      <c r="H50" s="304"/>
+      <c r="I50" s="304"/>
+      <c r="J50" s="304"/>
+      <c r="K50" s="304"/>
+      <c r="L50" s="305"/>
+      <c r="M50" s="326" t="s">
         <v>234</v>
       </c>
-      <c r="N50" s="267"/>
-      <c r="O50" s="267"/>
-      <c r="P50" s="267"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="321"/>
-      <c r="S50" s="358"/>
-      <c r="T50" s="358"/>
-      <c r="U50" s="358"/>
-      <c r="V50" s="358"/>
-      <c r="W50" s="358"/>
-      <c r="X50" s="358"/>
-      <c r="Y50" s="358"/>
-      <c r="Z50" s="358"/>
-      <c r="AA50" s="322"/>
-      <c r="AB50" s="353" t="s">
+      <c r="N50" s="304"/>
+      <c r="O50" s="304"/>
+      <c r="P50" s="304"/>
+      <c r="Q50" s="305"/>
+      <c r="R50" s="327"/>
+      <c r="S50" s="328"/>
+      <c r="T50" s="328"/>
+      <c r="U50" s="328"/>
+      <c r="V50" s="328"/>
+      <c r="W50" s="328"/>
+      <c r="X50" s="328"/>
+      <c r="Y50" s="328"/>
+      <c r="Z50" s="328"/>
+      <c r="AA50" s="329"/>
+      <c r="AB50" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC50" s="354"/>
-      <c r="AD50" s="354"/>
-      <c r="AE50" s="354"/>
-      <c r="AF50" s="355"/>
-      <c r="AG50" s="323" t="s">
+      <c r="AC50" s="331"/>
+      <c r="AD50" s="331"/>
+      <c r="AE50" s="331"/>
+      <c r="AF50" s="332"/>
+      <c r="AG50" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH50" s="324"/>
-      <c r="AI50" s="324"/>
-      <c r="AJ50" s="324"/>
-      <c r="AK50" s="325"/>
-      <c r="AL50" s="326" t="s">
+      <c r="AH50" s="323"/>
+      <c r="AI50" s="323"/>
+      <c r="AJ50" s="323"/>
+      <c r="AK50" s="324"/>
+      <c r="AL50" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM50" s="327"/>
-      <c r="AN50" s="328" t="s">
+      <c r="AM50" s="335"/>
+      <c r="AN50" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO50" s="329"/>
-      <c r="AP50" s="330"/>
-      <c r="AQ50" s="331">
+      <c r="AO50" s="319"/>
+      <c r="AP50" s="320"/>
+      <c r="AQ50" s="321">
         <v>44897</v>
       </c>
-      <c r="AR50" s="329"/>
-      <c r="AS50" s="329"/>
-      <c r="AT50" s="330"/>
-      <c r="AU50" s="332"/>
-      <c r="AV50" s="324"/>
-      <c r="AW50" s="324"/>
-      <c r="AX50" s="324"/>
-      <c r="AY50" s="324"/>
-      <c r="AZ50" s="324"/>
-      <c r="BA50" s="325"/>
+      <c r="AR50" s="319"/>
+      <c r="AS50" s="319"/>
+      <c r="AT50" s="320"/>
+      <c r="AU50" s="322"/>
+      <c r="AV50" s="323"/>
+      <c r="AW50" s="323"/>
+      <c r="AX50" s="323"/>
+      <c r="AY50" s="323"/>
+      <c r="AZ50" s="323"/>
+      <c r="BA50" s="324"/>
     </row>
     <row r="51" spans="3:53" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="181">
         <v>7</v>
       </c>
       <c r="D51" s="182"/>
-      <c r="E51" s="356" t="s">
+      <c r="E51" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="267"/>
-      <c r="G51" s="267"/>
-      <c r="H51" s="267"/>
-      <c r="I51" s="267"/>
-      <c r="J51" s="267"/>
-      <c r="K51" s="267"/>
-      <c r="L51" s="268"/>
-      <c r="M51" s="357" t="s">
+      <c r="F51" s="304"/>
+      <c r="G51" s="304"/>
+      <c r="H51" s="304"/>
+      <c r="I51" s="304"/>
+      <c r="J51" s="304"/>
+      <c r="K51" s="304"/>
+      <c r="L51" s="305"/>
+      <c r="M51" s="326" t="s">
         <v>235</v>
       </c>
-      <c r="N51" s="267"/>
-      <c r="O51" s="267"/>
-      <c r="P51" s="267"/>
-      <c r="Q51" s="268"/>
-      <c r="R51" s="321"/>
-      <c r="S51" s="358"/>
-      <c r="T51" s="358"/>
-      <c r="U51" s="358"/>
-      <c r="V51" s="358"/>
-      <c r="W51" s="358"/>
-      <c r="X51" s="358"/>
-      <c r="Y51" s="358"/>
-      <c r="Z51" s="358"/>
-      <c r="AA51" s="322"/>
-      <c r="AB51" s="353" t="s">
+      <c r="N51" s="304"/>
+      <c r="O51" s="304"/>
+      <c r="P51" s="304"/>
+      <c r="Q51" s="305"/>
+      <c r="R51" s="327"/>
+      <c r="S51" s="328"/>
+      <c r="T51" s="328"/>
+      <c r="U51" s="328"/>
+      <c r="V51" s="328"/>
+      <c r="W51" s="328"/>
+      <c r="X51" s="328"/>
+      <c r="Y51" s="328"/>
+      <c r="Z51" s="328"/>
+      <c r="AA51" s="329"/>
+      <c r="AB51" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC51" s="354"/>
-      <c r="AD51" s="354"/>
-      <c r="AE51" s="354"/>
-      <c r="AF51" s="355"/>
-      <c r="AG51" s="323" t="s">
+      <c r="AC51" s="331"/>
+      <c r="AD51" s="331"/>
+      <c r="AE51" s="331"/>
+      <c r="AF51" s="332"/>
+      <c r="AG51" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH51" s="324"/>
-      <c r="AI51" s="324"/>
-      <c r="AJ51" s="324"/>
-      <c r="AK51" s="325"/>
-      <c r="AL51" s="326" t="s">
+      <c r="AH51" s="323"/>
+      <c r="AI51" s="323"/>
+      <c r="AJ51" s="323"/>
+      <c r="AK51" s="324"/>
+      <c r="AL51" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM51" s="327"/>
-      <c r="AN51" s="328" t="s">
+      <c r="AM51" s="335"/>
+      <c r="AN51" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO51" s="329"/>
-      <c r="AP51" s="330"/>
-      <c r="AQ51" s="331">
+      <c r="AO51" s="319"/>
+      <c r="AP51" s="320"/>
+      <c r="AQ51" s="321">
         <v>44897</v>
       </c>
-      <c r="AR51" s="329"/>
-      <c r="AS51" s="329"/>
-      <c r="AT51" s="330"/>
-      <c r="AU51" s="332"/>
-      <c r="AV51" s="324"/>
-      <c r="AW51" s="324"/>
-      <c r="AX51" s="324"/>
-      <c r="AY51" s="324"/>
-      <c r="AZ51" s="324"/>
-      <c r="BA51" s="325"/>
+      <c r="AR51" s="319"/>
+      <c r="AS51" s="319"/>
+      <c r="AT51" s="320"/>
+      <c r="AU51" s="322"/>
+      <c r="AV51" s="323"/>
+      <c r="AW51" s="323"/>
+      <c r="AX51" s="323"/>
+      <c r="AY51" s="323"/>
+      <c r="AZ51" s="323"/>
+      <c r="BA51" s="324"/>
     </row>
     <row r="52" spans="3:53" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="181">
         <v>8</v>
       </c>
       <c r="D52" s="182"/>
-      <c r="E52" s="356" t="s">
+      <c r="E52" s="325" t="s">
         <v>251</v>
       </c>
-      <c r="F52" s="267"/>
-      <c r="G52" s="267"/>
-      <c r="H52" s="267"/>
-      <c r="I52" s="267"/>
-      <c r="J52" s="267"/>
-      <c r="K52" s="267"/>
-      <c r="L52" s="268"/>
-      <c r="M52" s="357" t="s">
+      <c r="F52" s="304"/>
+      <c r="G52" s="304"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="326" t="s">
         <v>253</v>
       </c>
-      <c r="N52" s="267"/>
-      <c r="O52" s="267"/>
-      <c r="P52" s="267"/>
-      <c r="Q52" s="268"/>
-      <c r="R52" s="321" t="s">
+      <c r="N52" s="304"/>
+      <c r="O52" s="304"/>
+      <c r="P52" s="304"/>
+      <c r="Q52" s="305"/>
+      <c r="R52" s="327" t="s">
         <v>256</v>
       </c>
-      <c r="S52" s="358"/>
-      <c r="T52" s="358"/>
-      <c r="U52" s="358"/>
-      <c r="V52" s="358"/>
-      <c r="W52" s="358"/>
-      <c r="X52" s="358"/>
-      <c r="Y52" s="358"/>
-      <c r="Z52" s="358"/>
-      <c r="AA52" s="322"/>
-      <c r="AB52" s="353" t="s">
+      <c r="S52" s="328"/>
+      <c r="T52" s="328"/>
+      <c r="U52" s="328"/>
+      <c r="V52" s="328"/>
+      <c r="W52" s="328"/>
+      <c r="X52" s="328"/>
+      <c r="Y52" s="328"/>
+      <c r="Z52" s="328"/>
+      <c r="AA52" s="329"/>
+      <c r="AB52" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC52" s="354"/>
-      <c r="AD52" s="354"/>
-      <c r="AE52" s="354"/>
-      <c r="AF52" s="355"/>
-      <c r="AG52" s="323" t="s">
+      <c r="AC52" s="331"/>
+      <c r="AD52" s="331"/>
+      <c r="AE52" s="331"/>
+      <c r="AF52" s="332"/>
+      <c r="AG52" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH52" s="324"/>
-      <c r="AI52" s="324"/>
-      <c r="AJ52" s="324"/>
-      <c r="AK52" s="325"/>
-      <c r="AL52" s="326" t="s">
+      <c r="AH52" s="323"/>
+      <c r="AI52" s="323"/>
+      <c r="AJ52" s="323"/>
+      <c r="AK52" s="324"/>
+      <c r="AL52" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM52" s="327"/>
-      <c r="AN52" s="328" t="s">
+      <c r="AM52" s="335"/>
+      <c r="AN52" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO52" s="329"/>
-      <c r="AP52" s="330"/>
-      <c r="AQ52" s="331">
+      <c r="AO52" s="319"/>
+      <c r="AP52" s="320"/>
+      <c r="AQ52" s="321">
         <v>44897</v>
       </c>
-      <c r="AR52" s="329"/>
-      <c r="AS52" s="329"/>
-      <c r="AT52" s="330"/>
-      <c r="AU52" s="332"/>
-      <c r="AV52" s="324"/>
-      <c r="AW52" s="324"/>
-      <c r="AX52" s="324"/>
-      <c r="AY52" s="324"/>
-      <c r="AZ52" s="324"/>
-      <c r="BA52" s="325"/>
+      <c r="AR52" s="319"/>
+      <c r="AS52" s="319"/>
+      <c r="AT52" s="320"/>
+      <c r="AU52" s="322"/>
+      <c r="AV52" s="323"/>
+      <c r="AW52" s="323"/>
+      <c r="AX52" s="323"/>
+      <c r="AY52" s="323"/>
+      <c r="AZ52" s="323"/>
+      <c r="BA52" s="324"/>
     </row>
     <row r="53" spans="3:53" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="181">
         <v>9</v>
       </c>
       <c r="D53" s="182"/>
-      <c r="E53" s="356" t="s">
+      <c r="E53" s="325" t="s">
         <v>259</v>
       </c>
-      <c r="F53" s="267"/>
-      <c r="G53" s="267"/>
-      <c r="H53" s="267"/>
-      <c r="I53" s="267"/>
-      <c r="J53" s="267"/>
-      <c r="K53" s="267"/>
-      <c r="L53" s="268"/>
-      <c r="M53" s="357" t="s">
+      <c r="F53" s="304"/>
+      <c r="G53" s="304"/>
+      <c r="H53" s="304"/>
+      <c r="I53" s="304"/>
+      <c r="J53" s="304"/>
+      <c r="K53" s="304"/>
+      <c r="L53" s="305"/>
+      <c r="M53" s="326" t="s">
         <v>260</v>
       </c>
-      <c r="N53" s="267"/>
-      <c r="O53" s="267"/>
-      <c r="P53" s="267"/>
-      <c r="Q53" s="268"/>
-      <c r="R53" s="321" t="s">
+      <c r="N53" s="304"/>
+      <c r="O53" s="304"/>
+      <c r="P53" s="304"/>
+      <c r="Q53" s="305"/>
+      <c r="R53" s="327" t="s">
         <v>266</v>
       </c>
-      <c r="S53" s="358"/>
-      <c r="T53" s="358"/>
-      <c r="U53" s="358"/>
-      <c r="V53" s="358"/>
-      <c r="W53" s="358"/>
-      <c r="X53" s="358"/>
-      <c r="Y53" s="358"/>
-      <c r="Z53" s="358"/>
-      <c r="AA53" s="322"/>
-      <c r="AB53" s="353" t="s">
+      <c r="S53" s="328"/>
+      <c r="T53" s="328"/>
+      <c r="U53" s="328"/>
+      <c r="V53" s="328"/>
+      <c r="W53" s="328"/>
+      <c r="X53" s="328"/>
+      <c r="Y53" s="328"/>
+      <c r="Z53" s="328"/>
+      <c r="AA53" s="329"/>
+      <c r="AB53" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC53" s="354"/>
-      <c r="AD53" s="354"/>
-      <c r="AE53" s="354"/>
-      <c r="AF53" s="355"/>
-      <c r="AG53" s="323" t="s">
+      <c r="AC53" s="331"/>
+      <c r="AD53" s="331"/>
+      <c r="AE53" s="331"/>
+      <c r="AF53" s="332"/>
+      <c r="AG53" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH53" s="324"/>
-      <c r="AI53" s="324"/>
-      <c r="AJ53" s="324"/>
-      <c r="AK53" s="325"/>
-      <c r="AL53" s="326" t="s">
+      <c r="AH53" s="323"/>
+      <c r="AI53" s="323"/>
+      <c r="AJ53" s="323"/>
+      <c r="AK53" s="324"/>
+      <c r="AL53" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM53" s="327"/>
-      <c r="AN53" s="328" t="s">
+      <c r="AM53" s="335"/>
+      <c r="AN53" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO53" s="329"/>
-      <c r="AP53" s="330"/>
-      <c r="AQ53" s="331">
+      <c r="AO53" s="319"/>
+      <c r="AP53" s="320"/>
+      <c r="AQ53" s="321">
         <v>44897</v>
       </c>
-      <c r="AR53" s="329"/>
-      <c r="AS53" s="329"/>
-      <c r="AT53" s="330"/>
-      <c r="AU53" s="332"/>
-      <c r="AV53" s="324"/>
-      <c r="AW53" s="324"/>
-      <c r="AX53" s="324"/>
-      <c r="AY53" s="324"/>
-      <c r="AZ53" s="324"/>
-      <c r="BA53" s="325"/>
+      <c r="AR53" s="319"/>
+      <c r="AS53" s="319"/>
+      <c r="AT53" s="320"/>
+      <c r="AU53" s="322"/>
+      <c r="AV53" s="323"/>
+      <c r="AW53" s="323"/>
+      <c r="AX53" s="323"/>
+      <c r="AY53" s="323"/>
+      <c r="AZ53" s="323"/>
+      <c r="BA53" s="324"/>
     </row>
     <row r="54" spans="3:53" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="181">
         <v>10</v>
       </c>
       <c r="D54" s="182"/>
-      <c r="E54" s="356"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="267"/>
-      <c r="H54" s="267"/>
-      <c r="I54" s="267"/>
-      <c r="J54" s="267"/>
-      <c r="K54" s="267"/>
-      <c r="L54" s="268"/>
-      <c r="M54" s="357"/>
-      <c r="N54" s="267"/>
-      <c r="O54" s="267"/>
-      <c r="P54" s="267"/>
-      <c r="Q54" s="268"/>
-      <c r="R54" s="321" t="s">
+      <c r="E54" s="325"/>
+      <c r="F54" s="304"/>
+      <c r="G54" s="304"/>
+      <c r="H54" s="304"/>
+      <c r="I54" s="304"/>
+      <c r="J54" s="304"/>
+      <c r="K54" s="304"/>
+      <c r="L54" s="305"/>
+      <c r="M54" s="326"/>
+      <c r="N54" s="304"/>
+      <c r="O54" s="304"/>
+      <c r="P54" s="304"/>
+      <c r="Q54" s="305"/>
+      <c r="R54" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="S54" s="358"/>
-      <c r="T54" s="358"/>
-      <c r="U54" s="358"/>
-      <c r="V54" s="358"/>
-      <c r="W54" s="358"/>
-      <c r="X54" s="358"/>
-      <c r="Y54" s="358"/>
-      <c r="Z54" s="358"/>
-      <c r="AA54" s="322"/>
-      <c r="AB54" s="353" t="s">
+      <c r="S54" s="328"/>
+      <c r="T54" s="328"/>
+      <c r="U54" s="328"/>
+      <c r="V54" s="328"/>
+      <c r="W54" s="328"/>
+      <c r="X54" s="328"/>
+      <c r="Y54" s="328"/>
+      <c r="Z54" s="328"/>
+      <c r="AA54" s="329"/>
+      <c r="AB54" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="AC54" s="354"/>
-      <c r="AD54" s="354"/>
-      <c r="AE54" s="354"/>
-      <c r="AF54" s="355"/>
-      <c r="AG54" s="323" t="s">
+      <c r="AC54" s="331"/>
+      <c r="AD54" s="331"/>
+      <c r="AE54" s="331"/>
+      <c r="AF54" s="332"/>
+      <c r="AG54" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="AH54" s="324"/>
-      <c r="AI54" s="324"/>
-      <c r="AJ54" s="324"/>
-      <c r="AK54" s="325"/>
-      <c r="AL54" s="326" t="s">
+      <c r="AH54" s="323"/>
+      <c r="AI54" s="323"/>
+      <c r="AJ54" s="323"/>
+      <c r="AK54" s="324"/>
+      <c r="AL54" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AM54" s="327"/>
-      <c r="AN54" s="328" t="s">
+      <c r="AM54" s="335"/>
+      <c r="AN54" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="AO54" s="329"/>
-      <c r="AP54" s="330"/>
-      <c r="AQ54" s="331">
+      <c r="AO54" s="319"/>
+      <c r="AP54" s="320"/>
+      <c r="AQ54" s="321">
         <v>44908</v>
       </c>
-      <c r="AR54" s="329"/>
-      <c r="AS54" s="329"/>
-      <c r="AT54" s="330"/>
-      <c r="AU54" s="332"/>
-      <c r="AV54" s="324"/>
-      <c r="AW54" s="324"/>
-      <c r="AX54" s="324"/>
-      <c r="AY54" s="324"/>
-      <c r="AZ54" s="324"/>
-      <c r="BA54" s="325"/>
+      <c r="AR54" s="319"/>
+      <c r="AS54" s="319"/>
+      <c r="AT54" s="320"/>
+      <c r="AU54" s="322"/>
+      <c r="AV54" s="323"/>
+      <c r="AW54" s="323"/>
+      <c r="AX54" s="323"/>
+      <c r="AY54" s="323"/>
+      <c r="AZ54" s="323"/>
+      <c r="BA54" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="237">
-    <mergeCell ref="AN54:AP54"/>
-    <mergeCell ref="AQ54:AT54"/>
-    <mergeCell ref="AU54:BA54"/>
-    <mergeCell ref="E54:L54"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="R54:AA54"/>
-    <mergeCell ref="AB54:AF54"/>
-    <mergeCell ref="AG54:AK54"/>
-    <mergeCell ref="AL54:AM54"/>
-    <mergeCell ref="E53:L53"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="R53:AA53"/>
-    <mergeCell ref="AB53:AF53"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="AN53:AP53"/>
-    <mergeCell ref="AQ53:AT53"/>
-    <mergeCell ref="AU53:BA53"/>
-    <mergeCell ref="E52:L52"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="R52:AA52"/>
-    <mergeCell ref="AB52:AF52"/>
-    <mergeCell ref="AG52:AK52"/>
-    <mergeCell ref="AL52:AM52"/>
-    <mergeCell ref="AN52:AP52"/>
-    <mergeCell ref="AQ52:AT52"/>
-    <mergeCell ref="AU52:BA52"/>
-    <mergeCell ref="AN50:AP50"/>
-    <mergeCell ref="AQ50:AT50"/>
-    <mergeCell ref="AU50:BA50"/>
-    <mergeCell ref="E51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:AA51"/>
-    <mergeCell ref="AB51:AF51"/>
-    <mergeCell ref="AG51:AK51"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AN51:AP51"/>
-    <mergeCell ref="E50:L50"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:AA50"/>
-    <mergeCell ref="AB50:AF50"/>
-    <mergeCell ref="AG50:AK50"/>
-    <mergeCell ref="AL50:AM50"/>
-    <mergeCell ref="AQ51:AT51"/>
-    <mergeCell ref="AU51:BA51"/>
-    <mergeCell ref="E49:L49"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R49:AA49"/>
-    <mergeCell ref="AB49:AF49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AL49:AM49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AQ49:AT49"/>
-    <mergeCell ref="AU49:BA49"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="R48:AA48"/>
-    <mergeCell ref="AB48:AF48"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AL48:AM48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="AQ48:AT48"/>
-    <mergeCell ref="AU48:BA48"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="AQ46:AT46"/>
-    <mergeCell ref="AU46:BA46"/>
-    <mergeCell ref="E47:L47"/>
-    <mergeCell ref="M47:Q47"/>
-    <mergeCell ref="R47:AA47"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="R46:AA46"/>
-    <mergeCell ref="AB46:AF46"/>
-    <mergeCell ref="AG46:AK46"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AQ47:AT47"/>
-    <mergeCell ref="AU47:BA47"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AG45:AK45"/>
-    <mergeCell ref="AL45:AM45"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="AQ45:AT45"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="E44:L44"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="R44:AA44"/>
-    <mergeCell ref="E45:L45"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="R45:AA45"/>
-    <mergeCell ref="AH36:AN36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AH37:AN37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH34:AN34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AH35:AN35"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH32:AN32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AH33:AN33"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AN29"/>
-    <mergeCell ref="AH30:AN30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AN31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AN19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
@@ -24026,64 +25722,162 @@
     <mergeCell ref="AA28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AN29"/>
+    <mergeCell ref="AH30:AN30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AN31"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH32:AN32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AH33:AN33"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH34:AN34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AH35:AN35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH36:AN36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AH37:AN37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AG45:AK45"/>
+    <mergeCell ref="AL45:AM45"/>
+    <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="AQ45:AT45"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="R44:AA44"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="R45:AA45"/>
+    <mergeCell ref="AN46:AP46"/>
+    <mergeCell ref="AQ46:AT46"/>
+    <mergeCell ref="AU46:BA46"/>
+    <mergeCell ref="E47:L47"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="R47:AA47"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="AG47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="R46:AA46"/>
+    <mergeCell ref="AB46:AF46"/>
+    <mergeCell ref="AG46:AK46"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AQ47:AT47"/>
+    <mergeCell ref="AU47:BA47"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="R48:AA48"/>
+    <mergeCell ref="AB48:AF48"/>
+    <mergeCell ref="AG48:AK48"/>
+    <mergeCell ref="AL48:AM48"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="AQ48:AT48"/>
+    <mergeCell ref="AU48:BA48"/>
+    <mergeCell ref="E49:L49"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="R49:AA49"/>
+    <mergeCell ref="AB49:AF49"/>
+    <mergeCell ref="AG49:AK49"/>
+    <mergeCell ref="AL49:AM49"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AQ49:AT49"/>
+    <mergeCell ref="AU49:BA49"/>
+    <mergeCell ref="AN50:AP50"/>
+    <mergeCell ref="AQ50:AT50"/>
+    <mergeCell ref="AU50:BA50"/>
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:AA51"/>
+    <mergeCell ref="AB51:AF51"/>
+    <mergeCell ref="AG51:AK51"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AN51:AP51"/>
+    <mergeCell ref="E50:L50"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:AA50"/>
+    <mergeCell ref="AB50:AF50"/>
+    <mergeCell ref="AG50:AK50"/>
+    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="AQ51:AT51"/>
+    <mergeCell ref="AU51:BA51"/>
+    <mergeCell ref="E52:L52"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="R52:AA52"/>
+    <mergeCell ref="AB52:AF52"/>
+    <mergeCell ref="AG52:AK52"/>
+    <mergeCell ref="AL52:AM52"/>
+    <mergeCell ref="AN52:AP52"/>
+    <mergeCell ref="AQ52:AT52"/>
+    <mergeCell ref="AU52:BA52"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="R53:AA53"/>
+    <mergeCell ref="AB53:AF53"/>
+    <mergeCell ref="AG53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="AN53:AP53"/>
+    <mergeCell ref="AQ53:AT53"/>
+    <mergeCell ref="AU53:BA53"/>
+    <mergeCell ref="AN54:AP54"/>
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="AU54:BA54"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="R54:AA54"/>
+    <mergeCell ref="AB54:AF54"/>
+    <mergeCell ref="AG54:AK54"/>
+    <mergeCell ref="AL54:AM54"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
